--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JS-SVG-Client\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F425AF3A-97BB-4B97-A9CA-26482E7B8A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA3315B-4DEB-43C5-A4E0-57B12EDC5E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ACF4154E-FD6B-4497-B4DB-14320FF8EFDB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>x</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Mean</t>
+  </si>
+  <si>
+    <t>xs</t>
+  </si>
+  <si>
+    <t>ys</t>
   </si>
 </sst>
 </file>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2228,10 +2237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3B7159-E648-4A17-87A3-4DEC161F9412}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2239,95 +2248,181 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
       </c>
+      <c r="C2" s="2">
+        <f>A2*300/9</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D10" si="0">B3*300/9</f>
+        <v>200</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>6</v>
       </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C11" si="1">A3*300/9</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>233.33333333333334</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>7</v>
       </c>
+      <c r="C4" s="2">
+        <f t="shared" si="1"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
+      <c r="C5" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>266.66666666666669</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>8</v>
       </c>
+      <c r="C6" s="2">
+        <f t="shared" si="1"/>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="D6" s="2">
+        <f>B7*300/9</f>
+        <v>233.33333333333334</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>7</v>
       </c>
+      <c r="C7" s="2">
+        <f>A7*300/9</f>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="D7" s="2">
+        <f>B8*300/9</f>
+        <v>66.666666666666671</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
+      <c r="C8" s="2">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>166.66666666666666</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
       </c>
+      <c r="C9" s="2">
+        <f t="shared" si="1"/>
+        <v>233.33333333333334</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
       </c>
+      <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>266.66666666666669</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>6</v>
       </c>
+      <c r="C11" s="2">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="D11" s="2">
+        <f>B2*300/9</f>
+        <v>133.33333333333334</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -2336,7 +2431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -2345,7 +2440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -2354,7 +2449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>

--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JS-SVG-Client\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA3315B-4DEB-43C5-A4E0-57B12EDC5E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718244BE-2092-41AC-8BB9-6B8B033704B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ACF4154E-FD6B-4497-B4DB-14320FF8EFDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{ACF4154E-FD6B-4497-B4DB-14320FF8EFDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sport" sheetId="2" r:id="rId2"/>
+    <sheet name="population" sheetId="6" r:id="rId3"/>
+    <sheet name="expenses" sheetId="3" r:id="rId4"/>
+    <sheet name="sales" sheetId="4" r:id="rId5"/>
+    <sheet name="temperature" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
   <si>
     <t>x</t>
   </si>
@@ -49,16 +54,240 @@
   </si>
   <si>
     <t>ys</t>
+  </si>
+  <si>
+    <t>Votes</t>
+  </si>
+  <si>
+    <t>Polo</t>
+  </si>
+  <si>
+    <t>Hockey</t>
+  </si>
+  <si>
+    <t>Cricket</t>
+  </si>
+  <si>
+    <t>Football</t>
+  </si>
+  <si>
+    <t>Basketball</t>
+  </si>
+  <si>
+    <t>Volleyball</t>
+  </si>
+  <si>
+    <t>Expenditure</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amount</t>
+  </si>
+  <si>
+    <t>Housing</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Gifts</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>Utility</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Garbage</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Cable TV</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>Movies</t>
+  </si>
+  <si>
+    <t>Concerts</t>
+  </si>
+  <si>
+    <t>Vacations</t>
+  </si>
+  <si>
+    <t>Subscriptions</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Sales (in units)</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product 1 </t>
+  </si>
+  <si>
+    <t>Product 2</t>
+  </si>
+  <si>
+    <t>Product 3</t>
+  </si>
+  <si>
+    <t>Product 4</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>Temperature Variation</t>
+  </si>
+  <si>
+    <t>Team Sport</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Men</t>
+  </si>
+  <si>
+    <t>Women</t>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>Anniversary</t>
+  </si>
+  <si>
+    <t>Wedding</t>
+  </si>
+  <si>
+    <t>Christmas</t>
+  </si>
+  <si>
+    <t>Special occasion</t>
+  </si>
+  <si>
+    <t>Charities</t>
+  </si>
+  <si>
+    <t>Donations</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Life</t>
+  </si>
+  <si>
+    <t>Disability</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,13 +313,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2239,7 +2477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3B7159-E648-4A17-87A3-4DEC161F9412}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2462,4 +2700,703 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC727EE-B0FC-4C7D-961C-CC5730B4F1FA}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B2:B7)</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C826C821-FF9A-44ED-9BA5-C55A680AF63A}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2">
+        <v>500</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2005</v>
+      </c>
+      <c r="B3">
+        <v>800</v>
+      </c>
+      <c r="C3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2010</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2015</v>
+      </c>
+      <c r="B5">
+        <v>1500</v>
+      </c>
+      <c r="C5">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2020</v>
+      </c>
+      <c r="B6">
+        <v>2000</v>
+      </c>
+      <c r="C6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2025</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AB892E-AC5C-4475-B05C-C05CBC73E516}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <f>E8</f>
+        <v>500</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>400</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>150</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>200</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="J6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>170</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <f>SUM(E2:E7)</f>
+        <v>500</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <f>SUM(H2:H7)</f>
+        <v>500</v>
+      </c>
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <f>H8</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <f>SUM(B2:B11)</f>
+        <v>4500</v>
+      </c>
+      <c r="C12">
+        <f>B12*12</f>
+        <v>54000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A732BD7-EA3E-419B-8AC9-7C03E7AB2404}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="3">
+        <v>4500</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1600</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2870</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5645</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5675</v>
+      </c>
+      <c r="E3" s="3">
+        <v>6754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3985</v>
+      </c>
+      <c r="C4" s="3">
+        <v>8900</v>
+      </c>
+      <c r="D4" s="3">
+        <v>9768</v>
+      </c>
+      <c r="E4" s="3">
+        <v>7786</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="3">
+        <v>6855</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8976</v>
+      </c>
+      <c r="D5" s="3">
+        <v>9008</v>
+      </c>
+      <c r="E5" s="3">
+        <v>8965</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3200</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5678</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5643</v>
+      </c>
+      <c r="E6" s="3">
+        <v>7865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3456</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4555</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2233</v>
+      </c>
+      <c r="E7" s="3">
+        <v>654</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8D6F23-EA4E-47B3-A513-3DBE6F5374D7}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-2.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="5">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="5">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="5">
+        <v>-2.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JS-SVG-Client\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718244BE-2092-41AC-8BB9-6B8B033704B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6C5068-A364-4EB8-98D0-2800891ED9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{ACF4154E-FD6B-4497-B4DB-14320FF8EFDB}"/>
   </bookViews>
@@ -270,6 +270,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -313,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -330,6 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1002,6 +1006,301 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>sport!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Polo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hockey</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cricket</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Football</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Basketball</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Volleyball</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sport!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A31-452A-B27A-32F727AD4F93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1082,6 +1381,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2069,6 +2408,525 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2170,6 +3028,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>159884</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57829</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BB60FF6-169D-E71F-4D34-40BC757E2BC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2704,10 +3603,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC727EE-B0FC-4C7D-961C-CC5730B4F1FA}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2715,7 +3614,7 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -2723,55 +3622,103 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="6">
+        <f>B2*100/$B$8</f>
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f>B2*6/30</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C8" si="0">B3*100/$B$8</f>
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E7" si="1">B3*6/30</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <f>B4*6/30</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -2779,9 +3726,14 @@
         <f>SUM(B2:B7)</f>
         <v>100</v>
       </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JS-SVG-Client\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6C5068-A364-4EB8-98D0-2800891ED9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D7E92C-D875-45E6-B6B9-E8F1D549FEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{ACF4154E-FD6B-4497-B4DB-14320FF8EFDB}"/>
+    <workbookView xWindow="13710" yWindow="1605" windowWidth="15090" windowHeight="13875" activeTab="2" xr2:uid="{ACF4154E-FD6B-4497-B4DB-14320FF8EFDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="sport" sheetId="2" r:id="rId2"/>
-    <sheet name="population" sheetId="6" r:id="rId3"/>
-    <sheet name="expenses" sheetId="3" r:id="rId4"/>
-    <sheet name="sales" sheetId="4" r:id="rId5"/>
-    <sheet name="temperature" sheetId="5" r:id="rId6"/>
+    <sheet name="Anscombe" sheetId="7" r:id="rId3"/>
+    <sheet name="population" sheetId="6" r:id="rId4"/>
+    <sheet name="expenses" sheetId="3" r:id="rId5"/>
+    <sheet name="sales" sheetId="4" r:id="rId6"/>
+    <sheet name="temperature" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
   <si>
     <t>x</t>
   </si>
@@ -264,6 +265,21 @@
   </si>
   <si>
     <t>Disability</t>
+  </si>
+  <si>
+    <t>Dataset I</t>
+  </si>
+  <si>
+    <t>Dataset II</t>
+  </si>
+  <si>
+    <t>Dataset III</t>
+  </si>
+  <si>
+    <t>Dataset IV</t>
+  </si>
+  <si>
+    <t>Anscombe's quartet</t>
   </si>
 </sst>
 </file>
@@ -271,9 +287,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +307,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -316,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -333,7 +357,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1072,6 +1111,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-450E-44ED-B9F2-D85B1CA0CB36}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1087,6 +1131,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-450E-44ED-B9F2-D85B1CA0CB36}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1102,6 +1151,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-450E-44ED-B9F2-D85B1CA0CB36}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1117,6 +1171,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-450E-44ED-B9F2-D85B1CA0CB36}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1132,6 +1191,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-450E-44ED-B9F2-D85B1CA0CB36}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1147,6 +1211,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-450E-44ED-B9F2-D85B1CA0CB36}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3605,7 +3674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC727EE-B0FC-4C7D-961C-CC5730B4F1FA}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -3738,6 +3807,404 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2786D27-6ADC-45C0-B36F-885854621D2D}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="C4" s="7">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <v>9.14</v>
+      </c>
+      <c r="E4" s="7">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7">
+        <v>7.46</v>
+      </c>
+      <c r="G4" s="7">
+        <v>8</v>
+      </c>
+      <c r="H4" s="7">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7">
+        <v>6.95</v>
+      </c>
+      <c r="C5" s="7">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7">
+        <v>8.14</v>
+      </c>
+      <c r="E5" s="7">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7">
+        <v>6.77</v>
+      </c>
+      <c r="G5" s="7">
+        <v>8</v>
+      </c>
+      <c r="H5" s="7">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7">
+        <v>7.58</v>
+      </c>
+      <c r="C6" s="7">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8.74</v>
+      </c>
+      <c r="E6" s="7">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7">
+        <v>12.74</v>
+      </c>
+      <c r="G6" s="7">
+        <v>8</v>
+      </c>
+      <c r="H6" s="7">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7">
+        <v>8.81</v>
+      </c>
+      <c r="C7" s="7">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7">
+        <v>8.77</v>
+      </c>
+      <c r="E7" s="7">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7">
+        <v>7.11</v>
+      </c>
+      <c r="G7" s="7">
+        <v>8</v>
+      </c>
+      <c r="H7" s="7">
+        <v>8.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7">
+        <v>8.33</v>
+      </c>
+      <c r="C8" s="7">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7">
+        <v>9.26</v>
+      </c>
+      <c r="E8" s="7">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7">
+        <v>7.81</v>
+      </c>
+      <c r="G8" s="7">
+        <v>8</v>
+      </c>
+      <c r="H8" s="7">
+        <v>8.4700000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="C9" s="7">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7">
+        <v>8.84</v>
+      </c>
+      <c r="G9" s="7">
+        <v>8</v>
+      </c>
+      <c r="H9" s="7">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7">
+        <v>7.24</v>
+      </c>
+      <c r="C10" s="7">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6.13</v>
+      </c>
+      <c r="E10" s="7">
+        <v>6</v>
+      </c>
+      <c r="F10" s="7">
+        <v>6.08</v>
+      </c>
+      <c r="G10" s="7">
+        <v>8</v>
+      </c>
+      <c r="H10" s="7">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7">
+        <v>4.26</v>
+      </c>
+      <c r="C11" s="7">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4</v>
+      </c>
+      <c r="F11" s="7">
+        <v>5.39</v>
+      </c>
+      <c r="G11" s="7">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7">
+        <v>10.84</v>
+      </c>
+      <c r="C12" s="7">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="E12" s="7">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7">
+        <v>8.15</v>
+      </c>
+      <c r="G12" s="7">
+        <v>8</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7">
+        <v>4.82</v>
+      </c>
+      <c r="C13" s="7">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7">
+        <v>7.26</v>
+      </c>
+      <c r="E13" s="7">
+        <v>7</v>
+      </c>
+      <c r="F13" s="7">
+        <v>6.42</v>
+      </c>
+      <c r="G13" s="7">
+        <v>8</v>
+      </c>
+      <c r="H13" s="7">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>5</v>
+      </c>
+      <c r="B14" s="7">
+        <v>5.68</v>
+      </c>
+      <c r="C14" s="7">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4.74</v>
+      </c>
+      <c r="E14" s="7">
+        <v>5</v>
+      </c>
+      <c r="F14" s="7">
+        <v>5.73</v>
+      </c>
+      <c r="G14" s="7">
+        <v>8</v>
+      </c>
+      <c r="H14" s="7">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <f>MIN(A4:A14)</f>
+        <v>4</v>
+      </c>
+      <c r="B15" s="10">
+        <f>MIN(B4:B14)</f>
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <f>MAX(A4:A14)</f>
+        <v>14</v>
+      </c>
+      <c r="B16" s="10">
+        <f>MAX(B4:B14)</f>
+        <v>10.84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <f>SUM(A4:A14)</f>
+        <v>99</v>
+      </c>
+      <c r="B17" s="10">
+        <f>SUM(B4:B14)</f>
+        <v>82.510000000000019</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C826C821-FF9A-44ED-9BA5-C55A680AF63A}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -3823,7 +4290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AB892E-AC5C-4475-B05C-C05CBC73E516}">
   <dimension ref="A1:M12"/>
   <sheetViews>
@@ -4085,7 +4552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A732BD7-EA3E-419B-8AC9-7C03E7AB2404}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -4227,7 +4694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8D6F23-EA4E-47B3-A513-3DBE6F5374D7}">
   <dimension ref="A1:D13"/>
   <sheetViews>

--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JS-SVG-Client\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D7E92C-D875-45E6-B6B9-E8F1D549FEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72BBEE2-BFE3-4DCC-BA80-6E8C3048D610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13710" yWindow="1605" windowWidth="15090" windowHeight="13875" activeTab="2" xr2:uid="{ACF4154E-FD6B-4497-B4DB-14320FF8EFDB}"/>
+    <workbookView xWindow="13710" yWindow="1605" windowWidth="15090" windowHeight="13875" activeTab="3" xr2:uid="{ACF4154E-FD6B-4497-B4DB-14320FF8EFDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="sport" sheetId="2" r:id="rId2"/>
     <sheet name="Anscombe" sheetId="7" r:id="rId3"/>
-    <sheet name="population" sheetId="6" r:id="rId4"/>
-    <sheet name="expenses" sheetId="3" r:id="rId5"/>
-    <sheet name="sales" sheetId="4" r:id="rId6"/>
-    <sheet name="temperature" sheetId="5" r:id="rId7"/>
+    <sheet name="Bubble" sheetId="8" r:id="rId4"/>
+    <sheet name="population" sheetId="6" r:id="rId5"/>
+    <sheet name="expenses" sheetId="3" r:id="rId6"/>
+    <sheet name="sales" sheetId="4" r:id="rId7"/>
+    <sheet name="temperature" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="121">
   <si>
     <t>x</t>
   </si>
@@ -280,6 +281,120 @@
   </si>
   <si>
     <t>Anscombe's quartet</t>
+  </si>
+  <si>
+    <t>Sugar and fat intake per country</t>
+  </si>
+  <si>
+    <t>Daily fat intake</t>
+  </si>
+  <si>
+    <t>Series 1</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Alpha2</t>
+  </si>
+  <si>
+    <t>x=fat</t>
+  </si>
+  <si>
+    <t>y=sugar</t>
+  </si>
+  <si>
+    <t>z=obesity</t>
   </si>
 </sst>
 </file>
@@ -340,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -370,8 +485,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3810,7 +3942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2786D27-6ADC-45C0-B36F-885854621D2D}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -3820,34 +3952,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -4205,6 +4337,400 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942E0003-48E9-49DF-99D5-B3E52D4AC7F6}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="17">
+        <v>63.4</v>
+      </c>
+      <c r="C4" s="17">
+        <v>51.8</v>
+      </c>
+      <c r="D4" s="18">
+        <v>15.4</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="17">
+        <v>64</v>
+      </c>
+      <c r="C5" s="17">
+        <v>82.9</v>
+      </c>
+      <c r="D5" s="18">
+        <v>31.3</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="17">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="C6" s="17">
+        <v>50.8</v>
+      </c>
+      <c r="D6" s="18">
+        <v>28.5</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="17">
+        <v>65.5</v>
+      </c>
+      <c r="C7" s="17">
+        <v>126.4</v>
+      </c>
+      <c r="D7" s="18">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="17">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C8" s="17">
+        <v>20</v>
+      </c>
+      <c r="D8" s="18">
+        <v>16</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="17">
+        <v>69.2</v>
+      </c>
+      <c r="C9" s="17">
+        <v>57.6</v>
+      </c>
+      <c r="D9" s="18">
+        <v>10.4</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="17">
+        <v>71</v>
+      </c>
+      <c r="C10" s="17">
+        <v>93.2</v>
+      </c>
+      <c r="D10" s="18">
+        <v>24.7</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="17">
+        <v>73.5</v>
+      </c>
+      <c r="C11" s="17">
+        <v>83.1</v>
+      </c>
+      <c r="D11" s="18">
+        <v>10</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="17">
+        <v>74.2</v>
+      </c>
+      <c r="C12" s="17">
+        <v>68.5</v>
+      </c>
+      <c r="D12" s="18">
+        <v>14.5</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="17">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="C13" s="17">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="D13" s="18">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="17">
+        <v>80.3</v>
+      </c>
+      <c r="C14" s="17">
+        <v>86.1</v>
+      </c>
+      <c r="D14" s="18">
+        <v>11.8</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="17">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="C15" s="17">
+        <v>102.5</v>
+      </c>
+      <c r="D15" s="18">
+        <v>12</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="17">
+        <v>80.8</v>
+      </c>
+      <c r="C16" s="17">
+        <v>91.5</v>
+      </c>
+      <c r="D16" s="18">
+        <v>15.8</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="17">
+        <v>86.5</v>
+      </c>
+      <c r="C17" s="17">
+        <v>102.9</v>
+      </c>
+      <c r="D17" s="18">
+        <v>14.7</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="17">
+        <v>95</v>
+      </c>
+      <c r="C18" s="17">
+        <v>95</v>
+      </c>
+      <c r="D18" s="18">
+        <v>13.8</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="6">
+        <f>MIN(B4:B18)</f>
+        <v>63.4</v>
+      </c>
+      <c r="C19" s="6">
+        <f>MIN(C4:C18)</f>
+        <v>20</v>
+      </c>
+      <c r="D19" s="6">
+        <f>MIN(D4:D18)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6">
+        <f>MAX(B5:B19)</f>
+        <v>95</v>
+      </c>
+      <c r="C20" s="6">
+        <f>MAX(C5:C19)</f>
+        <v>126.4</v>
+      </c>
+      <c r="D20" s="6">
+        <f>MAX(D5:D19)</f>
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C826C821-FF9A-44ED-9BA5-C55A680AF63A}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -4290,7 +4816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AB892E-AC5C-4475-B05C-C05CBC73E516}">
   <dimension ref="A1:M12"/>
   <sheetViews>
@@ -4552,7 +5078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A732BD7-EA3E-419B-8AC9-7C03E7AB2404}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -4694,7 +5220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8D6F23-EA4E-47B3-A513-3DBE6F5374D7}">
   <dimension ref="A1:D13"/>
   <sheetViews>

--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JS-SVG-Client\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72BBEE2-BFE3-4DCC-BA80-6E8C3048D610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93170E9C-F010-433B-9A3F-4645AF7389F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13710" yWindow="1605" windowWidth="15090" windowHeight="13875" activeTab="3" xr2:uid="{ACF4154E-FD6B-4497-B4DB-14320FF8EFDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{ACF4154E-FD6B-4497-B4DB-14320FF8EFDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="sport" sheetId="2" r:id="rId2"/>
     <sheet name="Anscombe" sheetId="7" r:id="rId3"/>
     <sheet name="Bubble" sheetId="8" r:id="rId4"/>
-    <sheet name="population" sheetId="6" r:id="rId5"/>
-    <sheet name="expenses" sheetId="3" r:id="rId6"/>
-    <sheet name="sales" sheetId="4" r:id="rId7"/>
-    <sheet name="temperature" sheetId="5" r:id="rId8"/>
+    <sheet name="unit" sheetId="9" r:id="rId5"/>
+    <sheet name="population" sheetId="6" r:id="rId6"/>
+    <sheet name="expenses" sheetId="3" r:id="rId7"/>
+    <sheet name="sales" sheetId="4" r:id="rId8"/>
+    <sheet name="temperature" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="154">
   <si>
     <t>x</t>
   </si>
@@ -395,16 +396,116 @@
   </si>
   <si>
     <t>z=obesity</t>
+  </si>
+  <si>
+    <t>px</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>divBox</t>
+  </si>
+  <si>
+    <t>divObj</t>
+  </si>
+  <si>
+    <t>divSvg</t>
+  </si>
+  <si>
+    <t>divOpt</t>
+  </si>
+  <si>
+    <t>divKey</t>
+  </si>
+  <si>
+    <t>divLaX</t>
+  </si>
+  <si>
+    <t>divLaY</t>
+  </si>
+  <si>
+    <t>container</t>
+  </si>
+  <si>
+    <t>plot container</t>
+  </si>
+  <si>
+    <t>main svg</t>
+  </si>
+  <si>
+    <t>legends</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>divNuX</t>
+  </si>
+  <si>
+    <t>divNuY</t>
+  </si>
+  <si>
+    <t>number axis x</t>
+  </si>
+  <si>
+    <t>number axis y</t>
+  </si>
+  <si>
+    <t>label axis y</t>
+  </si>
+  <si>
+    <t>label axis x</t>
+  </si>
+  <si>
+    <t>divLaT</t>
+  </si>
+  <si>
+    <t>label title</t>
+  </si>
+  <si>
+    <t>tablet</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>laptop</t>
+  </si>
+  <si>
+    <t>small screen</t>
+  </si>
+  <si>
+    <t>small tablet</t>
+  </si>
+  <si>
+    <t>desktop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,6 +535,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -455,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -485,6 +592,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -495,16 +608,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3952,34 +4062,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -4340,35 +4450,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942E0003-48E9-49DF-99D5-B3E52D4AC7F6}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="8" t="s">
         <v>118</v>
       </c>
@@ -4381,7 +4491,7 @@
       <c r="E3" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="8" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4389,19 +4499,19 @@
       <c r="A4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="11">
         <v>63.4</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="11">
         <v>51.8</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="12">
         <v>15.4</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4409,19 +4519,19 @@
       <c r="A5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="11">
         <v>64</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="11">
         <v>82.9</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="12">
         <v>31.3</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4429,19 +4539,19 @@
       <c r="A6" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="11">
         <v>65.400000000000006</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="11">
         <v>50.8</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="12">
         <v>28.5</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4449,19 +4559,19 @@
       <c r="A7" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="11">
         <v>65.5</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="11">
         <v>126.4</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="12">
         <v>35.299999999999997</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4469,19 +4579,19 @@
       <c r="A8" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="11">
         <v>68.599999999999994</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="11">
         <v>20</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="12">
         <v>16</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4489,19 +4599,19 @@
       <c r="A9" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="11">
         <v>69.2</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="11">
         <v>57.6</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="12">
         <v>10.4</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4509,19 +4619,19 @@
       <c r="A10" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="11">
         <v>71</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="11">
         <v>93.2</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="12">
         <v>24.7</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4529,19 +4639,19 @@
       <c r="A11" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="11">
         <v>73.5</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="11">
         <v>83.1</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="12">
         <v>10</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4549,19 +4659,19 @@
       <c r="A12" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="11">
         <v>74.2</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="11">
         <v>68.5</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="12">
         <v>14.5</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4569,19 +4679,19 @@
       <c r="A13" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="11">
         <v>78.400000000000006</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="11">
         <v>70.099999999999994</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="12">
         <v>16.600000000000001</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4589,19 +4699,19 @@
       <c r="A14" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="11">
         <v>80.3</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="11">
         <v>86.1</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="12">
         <v>11.8</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4609,19 +4719,19 @@
       <c r="A15" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="11">
         <v>80.400000000000006</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="11">
         <v>102.5</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="12">
         <v>12</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4629,19 +4739,19 @@
       <c r="A16" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="11">
         <v>80.8</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="11">
         <v>91.5</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="12">
         <v>15.8</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4649,19 +4759,19 @@
       <c r="A17" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="11">
         <v>86.5</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="11">
         <v>102.9</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="12">
         <v>14.7</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4669,19 +4779,19 @@
       <c r="A18" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="11">
         <v>95</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="11">
         <v>95</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="12">
         <v>13.8</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4731,6 +4841,703 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800F772C-0861-4015-AAFD-3D188F3B1B59}">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="17"/>
+    <col min="2" max="2" width="9.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="17"/>
+    <col min="4" max="4" width="14.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" style="17"/>
+    <col min="9" max="9" width="10.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19">
+        <f>A2*25.4/96</f>
+        <v>0.26458333333333334</v>
+      </c>
+      <c r="C2" s="20">
+        <f>B2/10</f>
+        <v>2.6458333333333334E-2</v>
+      </c>
+      <c r="D2" s="17">
+        <f>1/B2</f>
+        <v>3.7795275590551181</v>
+      </c>
+      <c r="E2" s="18">
+        <v>1</v>
+      </c>
+      <c r="F2" s="18">
+        <v>25.4</v>
+      </c>
+      <c r="G2" s="18">
+        <v>72</v>
+      </c>
+      <c r="H2" s="18">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>10</v>
+      </c>
+      <c r="B3" s="19">
+        <f t="shared" ref="B3:B33" si="0">A3*25.4/96</f>
+        <v>2.6458333333333335</v>
+      </c>
+      <c r="C3" s="20">
+        <f t="shared" ref="C3:C33" si="1">B3/10</f>
+        <v>0.26458333333333334</v>
+      </c>
+      <c r="D3" s="19">
+        <f>96/F2</f>
+        <v>3.7795275590551185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>15</v>
+      </c>
+      <c r="B4" s="19">
+        <f t="shared" si="0"/>
+        <v>3.96875</v>
+      </c>
+      <c r="C4" s="20">
+        <f t="shared" si="1"/>
+        <v>0.39687499999999998</v>
+      </c>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>20</v>
+      </c>
+      <c r="B5" s="19">
+        <f t="shared" si="0"/>
+        <v>5.291666666666667</v>
+      </c>
+      <c r="C5" s="20">
+        <f t="shared" si="1"/>
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="H5" s="17">
+        <v>22.998999999999999</v>
+      </c>
+      <c r="I5" s="17">
+        <f>H5*D3*10</f>
+        <v>869.25354330708672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>30</v>
+      </c>
+      <c r="B6" s="19">
+        <f t="shared" si="0"/>
+        <v>7.9375</v>
+      </c>
+      <c r="C6" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79374999999999996</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="17">
+        <v>1980</v>
+      </c>
+      <c r="G6" s="17">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>40</v>
+      </c>
+      <c r="B7" s="19">
+        <f t="shared" si="0"/>
+        <v>10.583333333333334</v>
+      </c>
+      <c r="C7" s="20">
+        <f t="shared" si="1"/>
+        <v>1.0583333333333333</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>50</v>
+      </c>
+      <c r="B8" s="19">
+        <f t="shared" si="0"/>
+        <v>13.229166666666666</v>
+      </c>
+      <c r="C8" s="20">
+        <f t="shared" si="1"/>
+        <v>1.3229166666666665</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>60</v>
+      </c>
+      <c r="B9" s="19">
+        <f t="shared" si="0"/>
+        <v>15.875</v>
+      </c>
+      <c r="C9" s="20">
+        <f t="shared" si="1"/>
+        <v>1.5874999999999999</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>64</v>
+      </c>
+      <c r="B10" s="19">
+        <f t="shared" si="0"/>
+        <v>16.933333333333334</v>
+      </c>
+      <c r="C10" s="20">
+        <f t="shared" si="1"/>
+        <v>1.6933333333333334</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>70</v>
+      </c>
+      <c r="B11" s="19">
+        <f t="shared" si="0"/>
+        <v>18.520833333333332</v>
+      </c>
+      <c r="C11" s="20">
+        <f t="shared" si="1"/>
+        <v>1.8520833333333333</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="17">
+        <v>1</v>
+      </c>
+      <c r="I11" s="21">
+        <f>100/12</f>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>72</v>
+      </c>
+      <c r="B12" s="19">
+        <f t="shared" si="0"/>
+        <v>19.05</v>
+      </c>
+      <c r="C12" s="20">
+        <f t="shared" si="1"/>
+        <v>1.905</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" s="17">
+        <v>2</v>
+      </c>
+      <c r="I12" s="21">
+        <f>$I$11*H12</f>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>80</v>
+      </c>
+      <c r="B13" s="19">
+        <f t="shared" si="0"/>
+        <v>21.166666666666668</v>
+      </c>
+      <c r="C13" s="20">
+        <f t="shared" si="1"/>
+        <v>2.1166666666666667</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="17">
+        <v>3</v>
+      </c>
+      <c r="I13" s="21">
+        <f t="shared" ref="I13:I22" si="2">$I$11*H13</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>90</v>
+      </c>
+      <c r="B14" s="19">
+        <f t="shared" si="0"/>
+        <v>23.8125</v>
+      </c>
+      <c r="C14" s="20">
+        <f t="shared" si="1"/>
+        <v>2.3812500000000001</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="17">
+        <v>4</v>
+      </c>
+      <c r="I14" s="21">
+        <f t="shared" si="2"/>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>100</v>
+      </c>
+      <c r="B15" s="19">
+        <f t="shared" si="0"/>
+        <v>26.458333333333332</v>
+      </c>
+      <c r="C15" s="20">
+        <f t="shared" si="1"/>
+        <v>2.645833333333333</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" s="17">
+        <v>5</v>
+      </c>
+      <c r="I15" s="21">
+        <f t="shared" si="2"/>
+        <v>41.666666666666671</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>150</v>
+      </c>
+      <c r="B16" s="19">
+        <f t="shared" si="0"/>
+        <v>39.6875</v>
+      </c>
+      <c r="C16" s="20">
+        <f t="shared" si="1"/>
+        <v>3.96875</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="17">
+        <v>6</v>
+      </c>
+      <c r="I16" s="21">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>200</v>
+      </c>
+      <c r="B17" s="19">
+        <f t="shared" si="0"/>
+        <v>52.916666666666664</v>
+      </c>
+      <c r="C17" s="20">
+        <f t="shared" si="1"/>
+        <v>5.2916666666666661</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="17">
+        <v>7</v>
+      </c>
+      <c r="I17" s="21">
+        <f t="shared" si="2"/>
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>250</v>
+      </c>
+      <c r="B18" s="19">
+        <f t="shared" si="0"/>
+        <v>66.145833333333329</v>
+      </c>
+      <c r="C18" s="20">
+        <f t="shared" si="1"/>
+        <v>6.614583333333333</v>
+      </c>
+      <c r="H18" s="17">
+        <v>8</v>
+      </c>
+      <c r="I18" s="21">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>300</v>
+      </c>
+      <c r="B19" s="19">
+        <f t="shared" si="0"/>
+        <v>79.375</v>
+      </c>
+      <c r="C19" s="20">
+        <f t="shared" si="1"/>
+        <v>7.9375</v>
+      </c>
+      <c r="H19" s="17">
+        <v>9</v>
+      </c>
+      <c r="I19" s="21">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>360</v>
+      </c>
+      <c r="B20" s="19">
+        <f t="shared" si="0"/>
+        <v>95.25</v>
+      </c>
+      <c r="C20" s="20">
+        <f t="shared" si="1"/>
+        <v>9.5250000000000004</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="17">
+        <v>640</v>
+      </c>
+      <c r="H20" s="17">
+        <v>10</v>
+      </c>
+      <c r="I20" s="21">
+        <f t="shared" si="2"/>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>400</v>
+      </c>
+      <c r="B21" s="19">
+        <f t="shared" si="0"/>
+        <v>105.83333333333333</v>
+      </c>
+      <c r="C21" s="20">
+        <f t="shared" si="1"/>
+        <v>10.583333333333332</v>
+      </c>
+      <c r="H21" s="17">
+        <v>11</v>
+      </c>
+      <c r="I21" s="21">
+        <f t="shared" si="2"/>
+        <v>91.666666666666671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>500</v>
+      </c>
+      <c r="B22" s="19">
+        <f t="shared" si="0"/>
+        <v>132.29166666666666</v>
+      </c>
+      <c r="C22" s="20">
+        <f t="shared" si="1"/>
+        <v>13.229166666666666</v>
+      </c>
+      <c r="H22" s="17">
+        <v>12</v>
+      </c>
+      <c r="I22" s="21">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>600</v>
+      </c>
+      <c r="B23" s="19">
+        <f t="shared" si="0"/>
+        <v>158.75</v>
+      </c>
+      <c r="C23" s="20">
+        <f t="shared" si="1"/>
+        <v>15.875</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="17">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>768</v>
+      </c>
+      <c r="B24" s="19">
+        <f t="shared" si="0"/>
+        <v>203.19999999999996</v>
+      </c>
+      <c r="C24" s="20">
+        <f t="shared" si="1"/>
+        <v>20.319999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>800</v>
+      </c>
+      <c r="B25" s="19">
+        <f t="shared" si="0"/>
+        <v>211.66666666666666</v>
+      </c>
+      <c r="C25" s="20">
+        <f t="shared" si="1"/>
+        <v>21.166666666666664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>1024</v>
+      </c>
+      <c r="B26" s="19">
+        <f t="shared" si="0"/>
+        <v>270.93333333333334</v>
+      </c>
+      <c r="C26" s="20">
+        <f t="shared" si="1"/>
+        <v>27.093333333333334</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="17">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <v>1080</v>
+      </c>
+      <c r="B27" s="19">
+        <f t="shared" si="0"/>
+        <v>285.75</v>
+      </c>
+      <c r="C27" s="20">
+        <f t="shared" si="1"/>
+        <v>28.574999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <v>1280</v>
+      </c>
+      <c r="B28" s="19">
+        <f t="shared" si="0"/>
+        <v>338.66666666666669</v>
+      </c>
+      <c r="C28" s="20">
+        <f t="shared" si="1"/>
+        <v>33.866666666666667</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="17">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
+        <v>1440</v>
+      </c>
+      <c r="B29" s="19">
+        <f t="shared" si="0"/>
+        <v>381</v>
+      </c>
+      <c r="C29" s="20">
+        <f t="shared" si="1"/>
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
+        <v>1600</v>
+      </c>
+      <c r="B30" s="19">
+        <f t="shared" si="0"/>
+        <v>423.33333333333331</v>
+      </c>
+      <c r="C30" s="20">
+        <f t="shared" si="1"/>
+        <v>42.333333333333329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
+        <v>1920</v>
+      </c>
+      <c r="B31" s="19">
+        <f t="shared" si="0"/>
+        <v>508</v>
+      </c>
+      <c r="C31" s="20">
+        <f t="shared" si="1"/>
+        <v>50.8</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" s="17">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
+        <v>2560</v>
+      </c>
+      <c r="B32" s="19">
+        <f t="shared" si="0"/>
+        <v>677.33333333333337</v>
+      </c>
+      <c r="C32" s="20">
+        <f t="shared" si="1"/>
+        <v>67.733333333333334</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" s="17">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
+        <f>1920/12</f>
+        <v>160</v>
+      </c>
+      <c r="B33" s="19">
+        <f t="shared" si="0"/>
+        <v>42.333333333333336</v>
+      </c>
+      <c r="C33" s="20">
+        <f t="shared" si="1"/>
+        <v>4.2333333333333334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="17">
+        <f>C33*3</f>
+        <v>12.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C826C821-FF9A-44ED-9BA5-C55A680AF63A}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -4816,7 +5623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AB892E-AC5C-4475-B05C-C05CBC73E516}">
   <dimension ref="A1:M12"/>
   <sheetViews>
@@ -5078,7 +5885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A732BD7-EA3E-419B-8AC9-7C03E7AB2404}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -5220,7 +6027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8D6F23-EA4E-47B3-A513-3DBE6F5374D7}">
   <dimension ref="A1:D13"/>
   <sheetViews>

--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JS-SVG-Client\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93170E9C-F010-433B-9A3F-4645AF7389F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6521FC-C2AC-4085-AB30-C890AC6F0637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{ACF4154E-FD6B-4497-B4DB-14320FF8EFDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{ACF4154E-FD6B-4497-B4DB-14320FF8EFDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="Anscombe" sheetId="7" r:id="rId3"/>
     <sheet name="Bubble" sheetId="8" r:id="rId4"/>
     <sheet name="unit" sheetId="9" r:id="rId5"/>
-    <sheet name="population" sheetId="6" r:id="rId6"/>
-    <sheet name="expenses" sheetId="3" r:id="rId7"/>
-    <sheet name="sales" sheetId="4" r:id="rId8"/>
-    <sheet name="temperature" sheetId="5" r:id="rId9"/>
+    <sheet name="Movies" sheetId="10" r:id="rId6"/>
+    <sheet name="population" sheetId="6" r:id="rId7"/>
+    <sheet name="expenses" sheetId="3" r:id="rId8"/>
+    <sheet name="sales" sheetId="4" r:id="rId9"/>
+    <sheet name="temperature" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="166">
   <si>
     <t>x</t>
   </si>
@@ -495,15 +496,52 @@
   </si>
   <si>
     <t>desktop</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guardians</t>
+  </si>
+  <si>
+    <t>Avengers</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>c0</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>grid</t>
+  </si>
+  <si>
+    <t>vdel</t>
+  </si>
+  <si>
+    <t>vdelN</t>
+  </si>
+  <si>
+    <t>vmaxN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="0.000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -562,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -598,6 +636,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -608,13 +653,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1612,6 +1652,390 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Movies!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Movies!$A$3:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Movies!$B$3:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>37.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E7C5-406F-BE60-56E4CBC223A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1954087647"/>
+        <c:axId val="1954078047"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1954087647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1954078047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1954078047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1954087647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1732,6 +2156,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3251,6 +3715,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3368,6 +4348,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BB60FF6-169D-E71F-4D34-40BC757E2BC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>134215</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>487072</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>53253</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BACEECAC-E533-001F-D1A9-01AC4D40154F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3912,6 +4933,132 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8D6F23-EA4E-47B3-A513-3DBE6F5374D7}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-2.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="5">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="5">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="5">
+        <v>-2.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC727EE-B0FC-4C7D-961C-CC5730B4F1FA}">
   <dimension ref="A1:E8"/>
@@ -4062,34 +5209,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -4460,25 +5607,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="8" t="s">
         <v>118</v>
       </c>
@@ -4844,689 +5991,689 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800F772C-0861-4015-AAFD-3D188F3B1B59}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="9.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="17"/>
-    <col min="4" max="4" width="14.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.140625" style="17"/>
-    <col min="9" max="9" width="10.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="9.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="13"/>
+    <col min="4" max="4" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" style="13"/>
+    <col min="9" max="9" width="10.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="14" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="15">
         <f>A2*25.4/96</f>
         <v>0.26458333333333334</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="16">
         <f>B2/10</f>
         <v>2.6458333333333334E-2</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="13">
         <f>1/B2</f>
         <v>3.7795275590551181</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="14">
         <v>1</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="14">
         <v>25.4</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="14">
         <v>72</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="14">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="13">
         <v>10</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="15">
         <f t="shared" ref="B3:B33" si="0">A3*25.4/96</f>
         <v>2.6458333333333335</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="16">
         <f t="shared" ref="C3:C33" si="1">B3/10</f>
         <v>0.26458333333333334</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="15">
         <f>96/F2</f>
         <v>3.7795275590551185</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="13">
         <v>15</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="15">
         <f t="shared" si="0"/>
         <v>3.96875</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="16">
         <f t="shared" si="1"/>
         <v>0.39687499999999998</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="13">
         <v>20</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="15">
         <f t="shared" si="0"/>
         <v>5.291666666666667</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="16">
         <f t="shared" si="1"/>
         <v>0.52916666666666667</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="13">
         <v>22.998999999999999</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="13">
         <f>H5*D3*10</f>
         <v>869.25354330708672</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="13">
         <v>30</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="15">
         <f t="shared" si="0"/>
         <v>7.9375</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="16">
         <f t="shared" si="1"/>
         <v>0.79374999999999996</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="13">
         <v>1980</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="13">
         <v>1080</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="13">
         <v>40</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="15">
         <f t="shared" si="0"/>
         <v>10.583333333333334</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="16">
         <f t="shared" si="1"/>
         <v>1.0583333333333333</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="13" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="13">
         <v>50</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="15">
         <f t="shared" si="0"/>
         <v>13.229166666666666</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="16">
         <f t="shared" si="1"/>
         <v>1.3229166666666665</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="13" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="13">
         <v>60</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="15">
         <f t="shared" si="0"/>
         <v>15.875</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="16">
         <f t="shared" si="1"/>
         <v>1.5874999999999999</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="13">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="13">
         <v>64</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="15">
         <f t="shared" si="0"/>
         <v>16.933333333333334</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="16">
         <f t="shared" si="1"/>
         <v>1.6933333333333334</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="13">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="13">
         <v>70</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>18.520833333333332</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="16">
         <f t="shared" si="1"/>
         <v>1.8520833333333333</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="13">
         <v>1</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="17">
         <f>100/12</f>
         <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="13">
         <v>72</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>19.05</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="16">
         <f t="shared" si="1"/>
         <v>1.905</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="13">
         <v>2</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="17">
         <f>$I$11*H12</f>
         <v>16.666666666666668</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="13">
         <v>80</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="15">
         <f t="shared" si="0"/>
         <v>21.166666666666668</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="16">
         <f t="shared" si="1"/>
         <v>2.1166666666666667</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="13">
         <v>3</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="17">
         <f t="shared" ref="I13:I22" si="2">$I$11*H13</f>
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="13">
         <v>90</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="15">
         <f t="shared" si="0"/>
         <v>23.8125</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="16">
         <f t="shared" si="1"/>
         <v>2.3812500000000001</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="13">
         <v>4</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="17">
         <f t="shared" si="2"/>
         <v>33.333333333333336</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="A15" s="13">
         <v>100</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="15">
         <f t="shared" si="0"/>
         <v>26.458333333333332</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="16">
         <f t="shared" si="1"/>
         <v>2.645833333333333</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="13">
         <v>5</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="17">
         <f t="shared" si="2"/>
         <v>41.666666666666671</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="13">
         <v>150</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="15">
         <f t="shared" si="0"/>
         <v>39.6875</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="16">
         <f t="shared" si="1"/>
         <v>3.96875</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="13">
         <v>6</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="17">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+      <c r="A17" s="13">
         <v>200</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="15">
         <f t="shared" si="0"/>
         <v>52.916666666666664</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="16">
         <f t="shared" si="1"/>
         <v>5.2916666666666661</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="13">
         <v>7</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="17">
         <f t="shared" si="2"/>
         <v>58.333333333333336</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="13">
         <v>250</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="15">
         <f t="shared" si="0"/>
         <v>66.145833333333329</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="16">
         <f t="shared" si="1"/>
         <v>6.614583333333333</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="13">
         <v>8</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="17">
         <f t="shared" si="2"/>
         <v>66.666666666666671</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+      <c r="A19" s="13">
         <v>300</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="15">
         <f t="shared" si="0"/>
         <v>79.375</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="16">
         <f t="shared" si="1"/>
         <v>7.9375</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="13">
         <v>9</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="17">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="A20" s="13">
         <v>360</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="15">
         <f t="shared" si="0"/>
         <v>95.25</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="16">
         <f t="shared" si="1"/>
         <v>9.5250000000000004</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="13">
         <v>640</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="13">
         <v>10</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="17">
         <f t="shared" si="2"/>
         <v>83.333333333333343</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="A21" s="13">
         <v>400</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="15">
         <f t="shared" si="0"/>
         <v>105.83333333333333</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="16">
         <f t="shared" si="1"/>
         <v>10.583333333333332</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="13">
         <v>11</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="17">
         <f t="shared" si="2"/>
         <v>91.666666666666671</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="A22" s="13">
         <v>500</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="15">
         <f t="shared" si="0"/>
         <v>132.29166666666666</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="16">
         <f t="shared" si="1"/>
         <v>13.229166666666666</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="13">
         <v>12</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="17">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
+      <c r="A23" s="13">
         <v>600</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="15">
         <f t="shared" si="0"/>
         <v>158.75</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="16">
         <f t="shared" si="1"/>
         <v>15.875</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="13">
         <v>962</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+      <c r="A24" s="13">
         <v>768</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="15">
         <f t="shared" si="0"/>
         <v>203.19999999999996</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="16">
         <f t="shared" si="1"/>
         <v>20.319999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+      <c r="A25" s="13">
         <v>800</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="15">
         <f t="shared" si="0"/>
         <v>211.66666666666666</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="16">
         <f t="shared" si="1"/>
         <v>21.166666666666664</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+      <c r="A26" s="13">
         <v>1024</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="15">
         <f t="shared" si="0"/>
         <v>270.93333333333334</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="16">
         <f t="shared" si="1"/>
         <v>27.093333333333334</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="13">
         <v>768</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+      <c r="A27" s="13">
         <v>1080</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="15">
         <f t="shared" si="0"/>
         <v>285.75</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="16">
         <f t="shared" si="1"/>
         <v>28.574999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+      <c r="A28" s="13">
         <v>1280</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="15">
         <f t="shared" si="0"/>
         <v>338.66666666666669</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="16">
         <f t="shared" si="1"/>
         <v>33.866666666666667</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="13">
         <v>800</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
+      <c r="A29" s="13">
         <v>1440</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="15">
         <f t="shared" si="0"/>
         <v>381</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="16">
         <f t="shared" si="1"/>
         <v>38.1</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+      <c r="A30" s="13">
         <v>1600</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="15">
         <f t="shared" si="0"/>
         <v>423.33333333333331</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="16">
         <f t="shared" si="1"/>
         <v>42.333333333333329</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+      <c r="A31" s="13">
         <v>1920</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="15">
         <f t="shared" si="0"/>
         <v>508</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="16">
         <f t="shared" si="1"/>
         <v>50.8</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="13">
         <v>1080</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+      <c r="A32" s="13">
         <v>2560</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="15">
         <f t="shared" si="0"/>
         <v>677.33333333333337</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="16">
         <f t="shared" si="1"/>
         <v>67.733333333333334</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="13">
         <v>1600</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
+      <c r="A33" s="13">
         <f>1920/12</f>
         <v>160</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="15">
         <f t="shared" si="0"/>
         <v>42.333333333333336</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="16">
         <f t="shared" si="1"/>
         <v>4.2333333333333334</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="17">
+      <c r="C34" s="13">
         <f>C33*3</f>
         <v>12.7</v>
       </c>
@@ -5538,6 +6685,413 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E5C042-D3E4-470D-B2D9-35B99FD8519A}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="C3">
+        <v>80.8</v>
+      </c>
+      <c r="D3">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>30.9</v>
+      </c>
+      <c r="C4">
+        <v>69.5</v>
+      </c>
+      <c r="D4">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>25.4</v>
+      </c>
+      <c r="C5">
+        <v>57</v>
+      </c>
+      <c r="D5">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>11.7</v>
+      </c>
+      <c r="C6">
+        <v>18.8</v>
+      </c>
+      <c r="D6">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>11.9</v>
+      </c>
+      <c r="C7">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D7">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C8">
+        <v>13.6</v>
+      </c>
+      <c r="D8">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7.6</v>
+      </c>
+      <c r="C9">
+        <v>12.3</v>
+      </c>
+      <c r="D9">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>12.3</v>
+      </c>
+      <c r="C10">
+        <v>29.2</v>
+      </c>
+      <c r="D10">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="C11">
+        <v>42.9</v>
+      </c>
+      <c r="D11">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>12.8</v>
+      </c>
+      <c r="C12">
+        <v>30.9</v>
+      </c>
+      <c r="D12">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>5.3</v>
+      </c>
+      <c r="C13">
+        <v>7.9</v>
+      </c>
+      <c r="D13">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>6.6</v>
+      </c>
+      <c r="C14">
+        <v>8.4</v>
+      </c>
+      <c r="D14">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>4.8</v>
+      </c>
+      <c r="C15">
+        <v>6.3</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>4.2</v>
+      </c>
+      <c r="C16">
+        <v>6.2</v>
+      </c>
+      <c r="D16">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>MIN(A3:A16)</f>
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18:D18" si="0">MIN(B3:B16)</f>
+        <v>4.2</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>6.2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>MAX(A3:A16)</f>
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:D19" si="1">MAX(B3:B16)</f>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>80.8</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>FLOOR(A18,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21:D21" si="2">FLOOR(B18,1)</f>
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>CEILING(A19,1)</f>
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:D22" si="3">CEILING(B19,1)</f>
+        <v>38</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <f>A24+B24*C24</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="23">
+        <f>(A22-A21)/B20</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="B25" s="23">
+        <f>(B22-B21)/$C$20</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="C25" s="23">
+        <f>(C22-C21)/$C$20</f>
+        <v>12.5</v>
+      </c>
+      <c r="D25" s="23">
+        <f>(D22-D21)/$C$20</f>
+        <v>6.5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>CEILING(A25,1)</f>
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <f>CEILING(B25,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <f>CEILING(C25,1)</f>
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="C26:D26" si="4">CEILING(D25,1)</f>
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>A21+A26*B20</f>
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <f>B21+B26*$C$20</f>
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <f>C21+C26*$C$20</f>
+        <v>84</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="C27:D27" si="5">D21+D26*$C$20</f>
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C826C821-FF9A-44ED-9BA5-C55A680AF63A}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -5623,7 +7177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AB892E-AC5C-4475-B05C-C05CBC73E516}">
   <dimension ref="A1:M12"/>
   <sheetViews>
@@ -5885,7 +7439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A732BD7-EA3E-419B-8AC9-7C03E7AB2404}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -6025,130 +7579,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8D6F23-EA4E-47B3-A513-3DBE6F5374D7}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="5">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="5">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="5">
-        <v>-2.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="5">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="5">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="5">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="5">
-        <v>-2.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JS-SVG-Client\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6521FC-C2AC-4085-AB30-C890AC6F0637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB08B2F7-50D5-4D52-B9DF-7188EF2B47EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{ACF4154E-FD6B-4497-B4DB-14320FF8EFDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{ACF4154E-FD6B-4497-B4DB-14320FF8EFDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="Bubble" sheetId="8" r:id="rId4"/>
     <sheet name="unit" sheetId="9" r:id="rId5"/>
     <sheet name="Movies" sheetId="10" r:id="rId6"/>
-    <sheet name="population" sheetId="6" r:id="rId7"/>
-    <sheet name="expenses" sheetId="3" r:id="rId8"/>
-    <sheet name="sales" sheetId="4" r:id="rId9"/>
-    <sheet name="temperature" sheetId="5" r:id="rId10"/>
+    <sheet name="metal-gold" sheetId="11" r:id="rId7"/>
+    <sheet name="population" sheetId="6" r:id="rId8"/>
+    <sheet name="expenses" sheetId="3" r:id="rId9"/>
+    <sheet name="sales" sheetId="4" r:id="rId10"/>
+    <sheet name="temperature" sheetId="5" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -541,7 +542,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -643,6 +644,8 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -653,8 +656,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4934,6 +4935,148 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A732BD7-EA3E-419B-8AC9-7C03E7AB2404}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="3">
+        <v>4500</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1600</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2870</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5645</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5675</v>
+      </c>
+      <c r="E3" s="3">
+        <v>6754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3985</v>
+      </c>
+      <c r="C4" s="3">
+        <v>8900</v>
+      </c>
+      <c r="D4" s="3">
+        <v>9768</v>
+      </c>
+      <c r="E4" s="3">
+        <v>7786</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="3">
+        <v>6855</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8976</v>
+      </c>
+      <c r="D5" s="3">
+        <v>9008</v>
+      </c>
+      <c r="E5" s="3">
+        <v>8965</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3200</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5678</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5643</v>
+      </c>
+      <c r="E6" s="3">
+        <v>7865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3456</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4555</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2233</v>
+      </c>
+      <c r="E7" s="3">
+        <v>654</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8D6F23-EA4E-47B3-A513-3DBE6F5374D7}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -5209,34 +5352,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -5607,25 +5750,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="8" t="s">
         <v>118</v>
       </c>
@@ -6688,7 +6831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E5C042-D3E4-470D-B2D9-35B99FD8519A}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B16"/>
     </sheetView>
   </sheetViews>
@@ -6710,7 +6853,7 @@
       <c r="C1" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="18" t="s">
         <v>157</v>
       </c>
     </row>
@@ -6724,7 +6867,7 @@
       <c r="C2" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="18" t="s">
         <v>161</v>
       </c>
     </row>
@@ -7023,19 +7166,19 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
+      <c r="A25" s="19">
         <f>(A22-A21)/B20</f>
         <v>1.4444444444444444</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="19">
         <f>(B22-B21)/$C$20</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="19">
         <f>(C22-C21)/$C$20</f>
         <v>12.5</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="19">
         <f>(D22-D21)/$C$20</f>
         <v>6.5</v>
       </c>
@@ -7057,7 +7200,7 @@
         <v>13</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="C26:D26" si="4">CEILING(D25,1)</f>
+        <f t="shared" ref="D26" si="4">CEILING(D25,1)</f>
         <v>7</v>
       </c>
       <c r="E26" t="s">
@@ -7078,7 +7221,7 @@
         <v>84</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="C27:D27" si="5">D21+D26*$C$20</f>
+        <f t="shared" ref="D27" si="5">D21+D26*$C$20</f>
         <v>45</v>
       </c>
       <c r="E27" t="s">
@@ -7092,6 +7235,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC903C74-C88F-4212-8F18-F438B09B03FB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C826C821-FF9A-44ED-9BA5-C55A680AF63A}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -7177,7 +7338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AB892E-AC5C-4475-B05C-C05CBC73E516}">
   <dimension ref="A1:M12"/>
   <sheetViews>
@@ -7437,146 +7598,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A732BD7-EA3E-419B-8AC9-7C03E7AB2404}">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="3">
-        <v>4500</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1600</v>
-      </c>
-      <c r="D2" s="3">
-        <v>4400</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2870</v>
-      </c>
-      <c r="C3" s="3">
-        <v>5645</v>
-      </c>
-      <c r="D3" s="3">
-        <v>5675</v>
-      </c>
-      <c r="E3" s="3">
-        <v>6754</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3985</v>
-      </c>
-      <c r="C4" s="3">
-        <v>8900</v>
-      </c>
-      <c r="D4" s="3">
-        <v>9768</v>
-      </c>
-      <c r="E4" s="3">
-        <v>7786</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="3">
-        <v>6855</v>
-      </c>
-      <c r="C5" s="3">
-        <v>8976</v>
-      </c>
-      <c r="D5" s="3">
-        <v>9008</v>
-      </c>
-      <c r="E5" s="3">
-        <v>8965</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3200</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5678</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5643</v>
-      </c>
-      <c r="E6" s="3">
-        <v>7865</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="3">
-        <v>3456</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4555</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2233</v>
-      </c>
-      <c r="E7" s="3">
-        <v>654</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,23 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JS-SVG-Client\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB08B2F7-50D5-4D52-B9DF-7188EF2B47EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F020E4-9ED3-439B-AD57-CD012E39AB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{ACF4154E-FD6B-4497-B4DB-14320FF8EFDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{ACF4154E-FD6B-4497-B4DB-14320FF8EFDB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="sport" sheetId="2" r:id="rId2"/>
-    <sheet name="Anscombe" sheetId="7" r:id="rId3"/>
-    <sheet name="Bubble" sheetId="8" r:id="rId4"/>
-    <sheet name="unit" sheetId="9" r:id="rId5"/>
-    <sheet name="Movies" sheetId="10" r:id="rId6"/>
-    <sheet name="metal-gold" sheetId="11" r:id="rId7"/>
-    <sheet name="population" sheetId="6" r:id="rId8"/>
-    <sheet name="expenses" sheetId="3" r:id="rId9"/>
-    <sheet name="sales" sheetId="4" r:id="rId10"/>
-    <sheet name="temperature" sheetId="5" r:id="rId11"/>
+    <sheet name="unit" sheetId="9" r:id="rId1"/>
+    <sheet name="gauge" sheetId="17" r:id="rId2"/>
+    <sheet name="Colors" sheetId="16" r:id="rId3"/>
+    <sheet name="heatmap-yearly" sheetId="12" r:id="rId4"/>
+    <sheet name="heatmap-monthly" sheetId="13" r:id="rId5"/>
+    <sheet name="heatmap-daily" sheetId="14" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
+    <sheet name="sport" sheetId="2" r:id="rId8"/>
+    <sheet name="Anscombe" sheetId="7" r:id="rId9"/>
+    <sheet name="Bubble" sheetId="8" r:id="rId10"/>
+    <sheet name="Movies" sheetId="10" r:id="rId11"/>
+    <sheet name="metal-gold" sheetId="11" r:id="rId12"/>
+    <sheet name="population" sheetId="6" r:id="rId13"/>
+    <sheet name="expenses" sheetId="3" r:id="rId14"/>
+    <sheet name="sales" sheetId="4" r:id="rId15"/>
+    <sheet name="temperature" sheetId="5" r:id="rId16"/>
   </sheets>
+  <definedNames>
+    <definedName name="Format_as_Hexadecimal">Colors!$C$22</definedName>
+    <definedName name="Selected_Delimiter">Colors!$Q$12</definedName>
+    <definedName name="Selected_Number_Format">Colors!$N$12</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="303">
   <si>
     <t>x</t>
   </si>
@@ -484,9 +494,6 @@
     <t>tablet</t>
   </si>
   <si>
-    <t>mobile</t>
-  </si>
-  <si>
     <t>laptop</t>
   </si>
   <si>
@@ -533,6 +540,420 @@
   </si>
   <si>
     <t>vmaxN</t>
+  </si>
+  <si>
+    <t>mm2px</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>&gt;=0</t>
+  </si>
+  <si>
+    <t>&gt;=10</t>
+  </si>
+  <si>
+    <t>&gt;=20</t>
+  </si>
+  <si>
+    <t>&gt;=30</t>
+  </si>
+  <si>
+    <t>&gt;=40</t>
+  </si>
+  <si>
+    <t>&gt;=50</t>
+  </si>
+  <si>
+    <t>&gt;=60</t>
+  </si>
+  <si>
+    <t>&gt;=70</t>
+  </si>
+  <si>
+    <t>&gt;=80</t>
+  </si>
+  <si>
+    <t>&gt;=90</t>
+  </si>
+  <si>
+    <t>89,89,89</t>
+  </si>
+  <si>
+    <t>64,64,64</t>
+  </si>
+  <si>
+    <t>148,138,84</t>
+  </si>
+  <si>
+    <t>38,38,38</t>
+  </si>
+  <si>
+    <t>73,69,41</t>
+  </si>
+  <si>
+    <t>22,54,92</t>
+  </si>
+  <si>
+    <t>54,96,146</t>
+  </si>
+  <si>
+    <t>150,54,52</t>
+  </si>
+  <si>
+    <t>118,147,60</t>
+  </si>
+  <si>
+    <t>96,73,122</t>
+  </si>
+  <si>
+    <t>226,107,10</t>
+  </si>
+  <si>
+    <t>13,13,13</t>
+  </si>
+  <si>
+    <t>29,27,16</t>
+  </si>
+  <si>
+    <t>15,36,62</t>
+  </si>
+  <si>
+    <t>36,64,98</t>
+  </si>
+  <si>
+    <t>99,37,35</t>
+  </si>
+  <si>
+    <t>79,98,40</t>
+  </si>
+  <si>
+    <t>64,49,81</t>
+  </si>
+  <si>
+    <t>33,89,103</t>
+  </si>
+  <si>
+    <t>151,71,6</t>
+  </si>
+  <si>
+    <t>Standard Colors</t>
+  </si>
+  <si>
+    <t>192,0,0</t>
+  </si>
+  <si>
+    <t>255,0,0</t>
+  </si>
+  <si>
+    <t>255,192,0</t>
+  </si>
+  <si>
+    <t>255,255,0</t>
+  </si>
+  <si>
+    <t>146,208,80</t>
+  </si>
+  <si>
+    <t>0,176,80</t>
+  </si>
+  <si>
+    <t>0,176,240</t>
+  </si>
+  <si>
+    <t>0,112,192</t>
+  </si>
+  <si>
+    <t>0,32,96</t>
+  </si>
+  <si>
+    <t>112,48,160</t>
+  </si>
+  <si>
+    <t>242,242,242</t>
+  </si>
+  <si>
+    <t>128,128,128</t>
+  </si>
+  <si>
+    <t>221,217,196</t>
+  </si>
+  <si>
+    <t>197,217,241</t>
+  </si>
+  <si>
+    <t>220,230,241</t>
+  </si>
+  <si>
+    <t>242,220,219</t>
+  </si>
+  <si>
+    <t>235,241,222</t>
+  </si>
+  <si>
+    <t>228,223,236</t>
+  </si>
+  <si>
+    <t>218,238,243</t>
+  </si>
+  <si>
+    <t>253,233,217</t>
+  </si>
+  <si>
+    <t>217,217,217</t>
+  </si>
+  <si>
+    <t>196,189,151</t>
+  </si>
+  <si>
+    <t>141,180,226</t>
+  </si>
+  <si>
+    <t>184,204,228</t>
+  </si>
+  <si>
+    <t>230,184,183</t>
+  </si>
+  <si>
+    <t>216,228,188</t>
+  </si>
+  <si>
+    <t>204,192,218</t>
+  </si>
+  <si>
+    <t>183,222,232</t>
+  </si>
+  <si>
+    <t>252,213,180</t>
+  </si>
+  <si>
+    <t>191,191,191</t>
+  </si>
+  <si>
+    <t>83,141,213</t>
+  </si>
+  <si>
+    <t>149,179,215</t>
+  </si>
+  <si>
+    <t>218,150,148</t>
+  </si>
+  <si>
+    <t>196,215,155</t>
+  </si>
+  <si>
+    <t>177,160,199</t>
+  </si>
+  <si>
+    <t>146,205,220</t>
+  </si>
+  <si>
+    <t>250,191,143</t>
+  </si>
+  <si>
+    <t>166,166,166</t>
+  </si>
+  <si>
+    <t>49,134,155</t>
+  </si>
+  <si>
+    <t>divMainBox</t>
+  </si>
+  <si>
+    <t>minor tic mark</t>
+  </si>
+  <si>
+    <t>major tic mark</t>
+  </si>
+  <si>
+    <t>gaugeTitle</t>
+  </si>
+  <si>
+    <t>MPH</t>
+  </si>
+  <si>
+    <t>gaugeValue</t>
+  </si>
+  <si>
+    <t>needleLine</t>
+  </si>
+  <si>
+    <t>needle pointer</t>
+  </si>
+  <si>
+    <t>needleCirc</t>
+  </si>
+  <si>
+    <t>needle cap</t>
+  </si>
+  <si>
+    <t>gaugeArea0</t>
+  </si>
+  <si>
+    <t>gaugeArea1</t>
+  </si>
+  <si>
+    <t>gaugeArea2</t>
+  </si>
+  <si>
+    <t>divToolTip</t>
+  </si>
+  <si>
+    <t>drawTicMin</t>
+  </si>
+  <si>
+    <t>drawTicMaj</t>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>svg line</t>
+  </si>
+  <si>
+    <t>svg path</t>
+  </si>
+  <si>
+    <t>svg text</t>
+  </si>
+  <si>
+    <t>tooltip over pointer on hover</t>
+  </si>
+  <si>
+    <t>scale range area green</t>
+  </si>
+  <si>
+    <t>scale range area red</t>
+  </si>
+  <si>
+    <t>scale range area yellow</t>
+  </si>
+  <si>
+    <t>value in number</t>
+  </si>
+  <si>
+    <t>scale background Main</t>
+  </si>
+  <si>
+    <t>svg circle</t>
+  </si>
+  <si>
+    <t>0-160</t>
+  </si>
+  <si>
+    <t>gaugeSkirt</t>
+  </si>
+  <si>
+    <t>gauge border</t>
+  </si>
+  <si>
+    <t>ticksMinor</t>
+  </si>
+  <si>
+    <t>ticksMajor</t>
+  </si>
+  <si>
+    <t>gaugeRange</t>
+  </si>
+  <si>
+    <t>div foreign</t>
+  </si>
+  <si>
+    <t>gaugeLabel</t>
+  </si>
+  <si>
+    <t>divMainObj</t>
+  </si>
+  <si>
+    <t>svg</t>
+  </si>
+  <si>
+    <t>svgMainSvg</t>
+  </si>
+  <si>
+    <t>svg path/circ</t>
+  </si>
+  <si>
+    <t>gaugeAreaN</t>
+  </si>
+  <si>
+    <t>gaugeInner</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>isGaugeSkirtOn</t>
+  </si>
+  <si>
+    <t>isGaugelabelOn</t>
+  </si>
+  <si>
+    <t>isNeedlelineOn</t>
+  </si>
+  <si>
+    <t>isNeedlecircOn</t>
+  </si>
+  <si>
+    <t>isGaugeAreasOn</t>
+  </si>
+  <si>
+    <t>isGaugeInnerOn</t>
+  </si>
+  <si>
+    <t>isTicksMinorOn</t>
+  </si>
+  <si>
+    <t>isTicksMajorOn</t>
+  </si>
+  <si>
+    <t>isGaugeRangeOn</t>
+  </si>
+  <si>
+    <t>isGaugeTitleOn</t>
+  </si>
+  <si>
+    <t>isGaugeValueOn</t>
   </si>
 </sst>
 </file>
@@ -544,7 +965,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,16 +1001,411 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF002060"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="61">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F7F7F"/>
+        <bgColor rgb="FF7F7F7F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDD9C3"/>
+        <bgColor rgb="FFDDD9C3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6D9F0"/>
+        <bgColor rgb="FFC6D9F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBE5F1"/>
+        <bgColor rgb="FFDBE5F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2DBDB"/>
+        <bgColor rgb="FFF2DBDB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAF1DD"/>
+        <bgColor rgb="FFEAF1DD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5DFEC"/>
+        <bgColor rgb="FFE5DFEC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor rgb="FFDAEEF3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor rgb="FFFDE9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8D8D8"/>
+        <bgColor rgb="FFD8D8D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF595959"/>
+        <bgColor rgb="FF595959"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4BD97"/>
+        <bgColor rgb="FFC4BD97"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8DB3E2"/>
+        <bgColor rgb="FF8DB3E2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor rgb="FFB8CCE4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5B8B7"/>
+        <bgColor rgb="FFE5B8B7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6E3BC"/>
+        <bgColor rgb="FFD6E3BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCC0D9"/>
+        <bgColor rgb="FFCCC0D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6DDE8"/>
+        <bgColor rgb="FFB6DDE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD4B4"/>
+        <bgColor rgb="FFFBD4B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3F3F3F"/>
+        <bgColor rgb="FF3F3F3F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF938953"/>
+        <bgColor rgb="FF938953"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF548DD4"/>
+        <bgColor rgb="FF548DD4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF95B3D7"/>
+        <bgColor rgb="FF95B3D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD99594"/>
+        <bgColor rgb="FFD99594"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2D69B"/>
+        <bgColor rgb="FFC2D69B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2A1C7"/>
+        <bgColor rgb="FFB2A1C7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92CDDC"/>
+        <bgColor rgb="FF92CDDC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFABF8F"/>
+        <bgColor rgb="FFFABF8F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF262626"/>
+        <bgColor rgb="FF262626"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF494429"/>
+        <bgColor rgb="FF494429"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF17365D"/>
+        <bgColor rgb="FF17365D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF366092"/>
+        <bgColor rgb="FF366092"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF953734"/>
+        <bgColor rgb="FF953734"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF76923C"/>
+        <bgColor rgb="FF76923C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5F497A"/>
+        <bgColor rgb="FF5F497A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF31859B"/>
+        <bgColor rgb="FF31859B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE36C09"/>
+        <bgColor rgb="FFE36C09"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0C0C0C"/>
+        <bgColor rgb="FF0C0C0C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1D1B10"/>
+        <bgColor rgb="FF1D1B10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0F243E"/>
+        <bgColor rgb="FF0F243E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF244061"/>
+        <bgColor rgb="FF244061"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF632423"/>
+        <bgColor rgb="FF632423"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F6128"/>
+        <bgColor rgb="FF4F6128"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3F3151"/>
+        <bgColor rgb="FF3F3151"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF205867"/>
+        <bgColor rgb="FF205867"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF974806"/>
+        <bgColor rgb="FF974806"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor rgb="FFC00000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF00B0F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF0070C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor rgb="FF002060"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor rgb="FF7030A0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -597,11 +1413,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -637,15 +1479,104 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="28" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="29" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="30" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="31" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="32" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="39" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="41" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="43" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="44" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="45" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="46" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="47" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="48" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="49" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="50" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="51" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="52" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="53" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="54" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="55" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="56" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="57" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="58" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="59" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="60" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4706,226 +5637,1637 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3B7159-E648-4A17-87A3-4DEC161F9412}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800F772C-0861-4015-AAFD-3D188F3B1B59}">
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="2" max="2" width="9.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="15"/>
+    <col min="4" max="4" width="14.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="16" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" style="16"/>
+    <col min="10" max="10" width="10.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17">
+        <f>A2*25.4/96</f>
+        <v>0.26458333333333334</v>
+      </c>
+      <c r="C2" s="18">
+        <f>B2/10</f>
+        <v>2.6458333333333334E-2</v>
+      </c>
+      <c r="D2" s="22">
+        <f>A2*$I$2/$G$2</f>
+        <v>3.7795275590551185</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="15">
+        <v>1</v>
+      </c>
+      <c r="G2" s="15">
+        <v>25.4</v>
+      </c>
+      <c r="H2" s="15">
+        <v>72</v>
+      </c>
+      <c r="I2" s="15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>10</v>
+      </c>
+      <c r="B3" s="17">
+        <f t="shared" ref="B3:B32" si="0">A3*25.4/96</f>
+        <v>2.6458333333333335</v>
+      </c>
+      <c r="C3" s="18">
+        <f t="shared" ref="C3:C32" si="1">B3/10</f>
+        <v>0.26458333333333334</v>
+      </c>
+      <c r="D3" s="17">
+        <f t="shared" ref="D3:D32" si="2">A3*$I$2/$G$2</f>
+        <v>37.795275590551185</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>15</v>
+      </c>
+      <c r="B4" s="17">
+        <f t="shared" si="0"/>
+        <v>3.96875</v>
+      </c>
+      <c r="C4" s="18">
+        <f t="shared" si="1"/>
+        <v>0.39687499999999998</v>
+      </c>
+      <c r="D4" s="17">
+        <f t="shared" si="2"/>
+        <v>56.692913385826778</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="16">
+        <v>36</v>
+      </c>
+      <c r="G4" s="16">
+        <f>F4*$I$2/$G$2</f>
+        <v>136.06299212598427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>20</v>
+      </c>
+      <c r="B5" s="17">
+        <f t="shared" si="0"/>
+        <v>5.291666666666667</v>
+      </c>
+      <c r="C5" s="18">
+        <f t="shared" si="1"/>
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="D5" s="17">
+        <f t="shared" si="2"/>
+        <v>75.59055118110237</v>
+      </c>
+      <c r="E5" s="19">
+        <f>F5/G5</f>
+        <v>11.25</v>
+      </c>
+      <c r="F5" s="16">
+        <v>90</v>
+      </c>
+      <c r="G5" s="16">
+        <v>8</v>
+      </c>
+      <c r="I5" s="16">
+        <v>22.998999999999999</v>
+      </c>
+      <c r="J5" s="16">
+        <f>I5*D2*10</f>
+        <v>869.25354330708672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>30</v>
+      </c>
+      <c r="B6" s="17">
+        <f t="shared" si="0"/>
+        <v>7.9375</v>
+      </c>
+      <c r="C6" s="18">
+        <f t="shared" si="1"/>
+        <v>0.79374999999999996</v>
+      </c>
+      <c r="D6" s="21">
+        <f t="shared" si="2"/>
+        <v>113.38582677165356</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1980</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>40</v>
+      </c>
+      <c r="B7" s="17">
+        <f t="shared" si="0"/>
+        <v>10.583333333333334</v>
+      </c>
+      <c r="C7" s="18">
+        <f t="shared" si="1"/>
+        <v>1.0583333333333333</v>
+      </c>
+      <c r="D7" s="21">
+        <f t="shared" si="2"/>
+        <v>151.18110236220474</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>50</v>
+      </c>
+      <c r="B8" s="17">
+        <f t="shared" si="0"/>
+        <v>13.229166666666666</v>
+      </c>
+      <c r="C8" s="18">
+        <f t="shared" si="1"/>
+        <v>1.3229166666666665</v>
+      </c>
+      <c r="D8" s="21">
+        <f t="shared" si="2"/>
+        <v>188.97637795275591</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>60</v>
+      </c>
+      <c r="B9" s="17">
+        <f t="shared" si="0"/>
+        <v>15.875</v>
+      </c>
+      <c r="C9" s="18">
+        <f t="shared" si="1"/>
+        <v>1.5874999999999999</v>
+      </c>
+      <c r="D9" s="21">
+        <f t="shared" si="2"/>
+        <v>226.77165354330711</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>64</v>
+      </c>
+      <c r="B10" s="17">
+        <f t="shared" si="0"/>
+        <v>16.933333333333334</v>
+      </c>
+      <c r="C10" s="18">
+        <f t="shared" si="1"/>
+        <v>1.6933333333333334</v>
+      </c>
+      <c r="D10" s="21">
+        <f t="shared" si="2"/>
+        <v>241.88976377952758</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>70</v>
+      </c>
+      <c r="B11" s="17">
+        <f t="shared" si="0"/>
+        <v>18.520833333333332</v>
+      </c>
+      <c r="C11" s="18">
+        <f t="shared" si="1"/>
+        <v>1.8520833333333333</v>
+      </c>
+      <c r="D11" s="21">
+        <f t="shared" si="2"/>
+        <v>264.56692913385831</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="16">
+        <v>1</v>
+      </c>
+      <c r="J11" s="20">
+        <f>100/12</f>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>72</v>
+      </c>
+      <c r="B12" s="17">
+        <f t="shared" si="0"/>
+        <v>19.05</v>
+      </c>
+      <c r="C12" s="18">
+        <f t="shared" si="1"/>
+        <v>1.905</v>
+      </c>
+      <c r="D12" s="21">
+        <f t="shared" si="2"/>
+        <v>272.12598425196853</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12" s="16">
+        <v>2</v>
+      </c>
+      <c r="J12" s="20">
+        <f>$J$11*I12</f>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>80</v>
+      </c>
+      <c r="B13" s="17">
+        <f t="shared" si="0"/>
+        <v>21.166666666666668</v>
+      </c>
+      <c r="C13" s="18">
+        <f t="shared" si="1"/>
+        <v>2.1166666666666667</v>
+      </c>
+      <c r="D13" s="21">
+        <f t="shared" si="2"/>
+        <v>302.36220472440948</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" s="16">
+        <v>3</v>
+      </c>
+      <c r="J13" s="20">
+        <f t="shared" ref="J13:J22" si="3">$J$11*I13</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>90</v>
+      </c>
+      <c r="B14" s="17">
+        <f t="shared" si="0"/>
+        <v>23.8125</v>
+      </c>
+      <c r="C14" s="18">
+        <f t="shared" si="1"/>
+        <v>2.3812500000000001</v>
+      </c>
+      <c r="D14" s="21">
+        <f t="shared" si="2"/>
+        <v>340.15748031496065</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" s="16">
+        <v>4</v>
+      </c>
+      <c r="J14" s="20">
+        <f t="shared" si="3"/>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>100</v>
+      </c>
+      <c r="B15" s="17">
+        <f t="shared" si="0"/>
+        <v>26.458333333333332</v>
+      </c>
+      <c r="C15" s="18">
+        <f t="shared" si="1"/>
+        <v>2.645833333333333</v>
+      </c>
+      <c r="D15" s="21">
+        <f t="shared" si="2"/>
+        <v>377.95275590551182</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" s="16">
+        <v>5</v>
+      </c>
+      <c r="J15" s="20">
+        <f t="shared" si="3"/>
+        <v>41.666666666666671</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>150</v>
+      </c>
+      <c r="B16" s="17">
+        <f t="shared" si="0"/>
+        <v>39.6875</v>
+      </c>
+      <c r="C16" s="18">
+        <f t="shared" si="1"/>
+        <v>3.96875</v>
+      </c>
+      <c r="D16" s="21">
+        <f t="shared" si="2"/>
+        <v>566.92913385826773</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="I16" s="16">
+        <v>6</v>
+      </c>
+      <c r="J16" s="20">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>200</v>
+      </c>
+      <c r="B17" s="17">
+        <f t="shared" si="0"/>
+        <v>52.916666666666664</v>
+      </c>
+      <c r="C17" s="18">
+        <f t="shared" si="1"/>
+        <v>5.2916666666666661</v>
+      </c>
+      <c r="D17" s="21">
+        <f t="shared" si="2"/>
+        <v>755.90551181102364</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="I17" s="16">
+        <v>7</v>
+      </c>
+      <c r="J17" s="20">
+        <f t="shared" si="3"/>
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>250</v>
+      </c>
+      <c r="B18" s="17">
+        <f t="shared" si="0"/>
+        <v>66.145833333333329</v>
+      </c>
+      <c r="C18" s="18">
+        <f t="shared" si="1"/>
+        <v>6.614583333333333</v>
+      </c>
+      <c r="D18" s="21">
+        <f t="shared" si="2"/>
+        <v>944.88188976377955</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="I18" s="16">
+        <v>8</v>
+      </c>
+      <c r="J18" s="20">
+        <f t="shared" si="3"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>300</v>
+      </c>
+      <c r="B19" s="17">
+        <f t="shared" si="0"/>
+        <v>79.375</v>
+      </c>
+      <c r="C19" s="18">
+        <f t="shared" si="1"/>
+        <v>7.9375</v>
+      </c>
+      <c r="D19" s="21">
+        <f t="shared" si="2"/>
+        <v>1133.8582677165355</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="I19" s="16">
+        <v>9</v>
+      </c>
+      <c r="J19" s="20">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>360</v>
+      </c>
+      <c r="B20" s="17">
+        <f t="shared" si="0"/>
+        <v>95.25</v>
+      </c>
+      <c r="C20" s="18">
+        <f t="shared" si="1"/>
+        <v>9.5250000000000004</v>
+      </c>
+      <c r="D20" s="21">
+        <f t="shared" si="2"/>
+        <v>1360.6299212598426</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" s="16">
+        <v>640</v>
+      </c>
+      <c r="I20" s="16">
+        <v>10</v>
+      </c>
+      <c r="J20" s="20">
+        <f t="shared" si="3"/>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>400</v>
+      </c>
+      <c r="B21" s="17">
+        <f t="shared" si="0"/>
+        <v>105.83333333333333</v>
+      </c>
+      <c r="C21" s="18">
+        <f t="shared" si="1"/>
+        <v>10.583333333333332</v>
+      </c>
+      <c r="D21" s="21">
+        <f t="shared" si="2"/>
+        <v>1511.8110236220473</v>
+      </c>
+      <c r="I21" s="16">
+        <v>11</v>
+      </c>
+      <c r="J21" s="20">
+        <f t="shared" si="3"/>
+        <v>91.666666666666671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>500</v>
+      </c>
+      <c r="B22" s="17">
+        <f t="shared" si="0"/>
+        <v>132.29166666666666</v>
+      </c>
+      <c r="C22" s="18">
+        <f t="shared" si="1"/>
+        <v>13.229166666666666</v>
+      </c>
+      <c r="D22" s="21">
+        <f t="shared" si="2"/>
+        <v>1889.7637795275591</v>
+      </c>
+      <c r="I22" s="16">
+        <v>12</v>
+      </c>
+      <c r="J22" s="20">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>600</v>
+      </c>
+      <c r="B23" s="17">
+        <f t="shared" si="0"/>
+        <v>158.75</v>
+      </c>
+      <c r="C23" s="18">
+        <f t="shared" si="1"/>
+        <v>15.875</v>
+      </c>
+      <c r="D23" s="21">
+        <f t="shared" si="2"/>
+        <v>2267.7165354330709</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="16">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>768</v>
+      </c>
+      <c r="B24" s="17">
+        <f t="shared" si="0"/>
+        <v>203.19999999999996</v>
+      </c>
+      <c r="C24" s="18">
+        <f t="shared" si="1"/>
+        <v>20.319999999999997</v>
+      </c>
+      <c r="D24" s="21">
+        <f t="shared" si="2"/>
+        <v>2902.677165354331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>800</v>
+      </c>
+      <c r="B25" s="17">
+        <f t="shared" si="0"/>
+        <v>211.66666666666666</v>
+      </c>
+      <c r="C25" s="18">
+        <f t="shared" si="1"/>
+        <v>21.166666666666664</v>
+      </c>
+      <c r="D25" s="21">
+        <f t="shared" si="2"/>
+        <v>3023.6220472440946</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>1024</v>
+      </c>
+      <c r="B26" s="17">
+        <f t="shared" si="0"/>
+        <v>270.93333333333334</v>
+      </c>
+      <c r="C26" s="18">
+        <f t="shared" si="1"/>
+        <v>27.093333333333334</v>
+      </c>
+      <c r="D26" s="21">
+        <f t="shared" si="2"/>
+        <v>3870.2362204724413</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="16">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>1080</v>
+      </c>
+      <c r="B27" s="17">
+        <f t="shared" si="0"/>
+        <v>285.75</v>
+      </c>
+      <c r="C27" s="18">
+        <f t="shared" si="1"/>
+        <v>28.574999999999999</v>
+      </c>
+      <c r="D27" s="21">
+        <f t="shared" si="2"/>
+        <v>4081.8897637795276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>1280</v>
+      </c>
+      <c r="B28" s="17">
+        <f t="shared" si="0"/>
+        <v>338.66666666666669</v>
+      </c>
+      <c r="C28" s="18">
+        <f t="shared" si="1"/>
+        <v>33.866666666666667</v>
+      </c>
+      <c r="D28" s="21">
+        <f t="shared" si="2"/>
+        <v>4837.7952755905517</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="16">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>1440</v>
+      </c>
+      <c r="B29" s="17">
+        <f t="shared" si="0"/>
+        <v>381</v>
+      </c>
+      <c r="C29" s="18">
+        <f t="shared" si="1"/>
+        <v>38.1</v>
+      </c>
+      <c r="D29" s="21">
+        <f t="shared" si="2"/>
+        <v>5442.5196850393704</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <v>1600</v>
+      </c>
+      <c r="B30" s="17">
+        <f t="shared" si="0"/>
+        <v>423.33333333333331</v>
+      </c>
+      <c r="C30" s="18">
+        <f t="shared" si="1"/>
+        <v>42.333333333333329</v>
+      </c>
+      <c r="D30" s="21">
+        <f t="shared" si="2"/>
+        <v>6047.2440944881891</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <v>1920</v>
+      </c>
+      <c r="B31" s="17">
+        <f t="shared" si="0"/>
+        <v>508</v>
+      </c>
+      <c r="C31" s="18">
+        <f t="shared" si="1"/>
+        <v>50.8</v>
+      </c>
+      <c r="D31" s="21">
+        <f t="shared" si="2"/>
+        <v>7256.6929133858275</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" s="16">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <v>2560</v>
+      </c>
+      <c r="B32" s="17">
+        <f t="shared" si="0"/>
+        <v>677.33333333333337</v>
+      </c>
+      <c r="C32" s="18">
+        <f t="shared" si="1"/>
+        <v>67.733333333333334</v>
+      </c>
+      <c r="D32" s="21">
+        <f t="shared" si="2"/>
+        <v>9675.5905511811034</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32" s="16">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942E0003-48E9-49DF-99D5-B3E52D4AC7F6}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="92"/>
+      <c r="B3" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="11">
+        <v>63.4</v>
+      </c>
+      <c r="C4" s="11">
+        <v>51.8</v>
+      </c>
+      <c r="D4" s="12">
+        <v>15.4</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="11">
+        <v>64</v>
+      </c>
+      <c r="C5" s="11">
+        <v>82.9</v>
+      </c>
+      <c r="D5" s="12">
+        <v>31.3</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="11">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="C6" s="11">
+        <v>50.8</v>
+      </c>
+      <c r="D6" s="12">
+        <v>28.5</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="11">
+        <v>65.5</v>
+      </c>
+      <c r="C7" s="11">
+        <v>126.4</v>
+      </c>
+      <c r="D7" s="12">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="11">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C8" s="11">
+        <v>20</v>
+      </c>
+      <c r="D8" s="12">
+        <v>16</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="11">
+        <v>69.2</v>
+      </c>
+      <c r="C9" s="11">
+        <v>57.6</v>
+      </c>
+      <c r="D9" s="12">
+        <v>10.4</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="11">
+        <v>71</v>
+      </c>
+      <c r="C10" s="11">
+        <v>93.2</v>
+      </c>
+      <c r="D10" s="12">
+        <v>24.7</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="11">
+        <v>73.5</v>
+      </c>
+      <c r="C11" s="11">
+        <v>83.1</v>
+      </c>
+      <c r="D11" s="12">
+        <v>10</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="11">
+        <v>74.2</v>
+      </c>
+      <c r="C12" s="11">
+        <v>68.5</v>
+      </c>
+      <c r="D12" s="12">
+        <v>14.5</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="11">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="C13" s="11">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="D13" s="12">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="11">
+        <v>80.3</v>
+      </c>
+      <c r="C14" s="11">
+        <v>86.1</v>
+      </c>
+      <c r="D14" s="12">
+        <v>11.8</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="11">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="C15" s="11">
+        <v>102.5</v>
+      </c>
+      <c r="D15" s="12">
+        <v>12</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="11">
+        <v>80.8</v>
+      </c>
+      <c r="C16" s="11">
+        <v>91.5</v>
+      </c>
+      <c r="D16" s="12">
+        <v>15.8</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="11">
+        <v>86.5</v>
+      </c>
+      <c r="C17" s="11">
+        <v>102.9</v>
+      </c>
+      <c r="D17" s="12">
+        <v>14.7</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="11">
+        <v>95</v>
+      </c>
+      <c r="C18" s="11">
+        <v>95</v>
+      </c>
+      <c r="D18" s="12">
+        <v>13.8</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="6">
+        <f>MIN(B4:B18)</f>
+        <v>63.4</v>
+      </c>
+      <c r="C19" s="6">
+        <f>MIN(C4:C18)</f>
+        <v>20</v>
+      </c>
+      <c r="D19" s="6">
+        <f>MIN(D4:D18)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6">
+        <f>MAX(B5:B19)</f>
+        <v>95</v>
+      </c>
+      <c r="C20" s="6">
+        <f>MAX(C5:C19)</f>
+        <v>126.4</v>
+      </c>
+      <c r="D20" s="6">
+        <f>MAX(D5:D19)</f>
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E5C042-D3E4-470D-B2D9-35B99FD8519A}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="C3">
+        <v>80.8</v>
+      </c>
+      <c r="D3">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>30.9</v>
+      </c>
+      <c r="C4">
+        <v>69.5</v>
+      </c>
+      <c r="D4">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>25.4</v>
+      </c>
+      <c r="C5">
+        <v>57</v>
+      </c>
+      <c r="D5">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>11.7</v>
+      </c>
+      <c r="C6">
+        <v>18.8</v>
+      </c>
+      <c r="D6">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>11.9</v>
+      </c>
+      <c r="C7">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D7">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C8">
+        <v>13.6</v>
+      </c>
+      <c r="D8">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="B9">
+        <v>7.6</v>
+      </c>
+      <c r="C9">
+        <v>12.3</v>
+      </c>
+      <c r="D9">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>12.3</v>
+      </c>
+      <c r="C10">
+        <v>29.2</v>
+      </c>
+      <c r="D10">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="C11">
+        <v>42.9</v>
+      </c>
+      <c r="D11">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>12.8</v>
+      </c>
+      <c r="C12">
+        <v>30.9</v>
+      </c>
+      <c r="D12">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>5.3</v>
+      </c>
+      <c r="C13">
+        <v>7.9</v>
+      </c>
+      <c r="D13">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>6.6</v>
+      </c>
+      <c r="C14">
+        <v>8.4</v>
+      </c>
+      <c r="D14">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>4.8</v>
+      </c>
+      <c r="C15">
+        <v>6.3</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>4.2</v>
+      </c>
+      <c r="C16">
+        <v>6.2</v>
+      </c>
+      <c r="D16">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>MIN(A3:A16)</f>
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18:D18" si="0">MIN(B3:B16)</f>
+        <v>4.2</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>6.2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>MAX(A3:A16)</f>
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:D19" si="1">MAX(B3:B16)</f>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>80.8</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>FLOOR(A18,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21:D21" si="2">FLOOR(B18,1)</f>
         <v>4</v>
       </c>
-      <c r="C2" s="2">
-        <f>A2*300/9</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <f t="shared" ref="D2:D10" si="0">B3*300/9</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="C21">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:C11" si="1">A3*300/9</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" si="0"/>
-        <v>233.33333333333334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>CEILING(A19,1)</f>
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:D22" si="3">CEILING(B19,1)</f>
+        <v>38</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <f>A24+B24*C24</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <f>(A22-A21)/B20</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="B25" s="14">
+        <f>(B22-B21)/$C$20</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="C25" s="14">
+        <f>(C22-C21)/$C$20</f>
+        <v>12.5</v>
+      </c>
+      <c r="D25" s="14">
+        <f>(D22-D21)/$C$20</f>
+        <v>6.5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>CEILING(A25,1)</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B26">
+        <f>CEILING(B25,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <f>CEILING(C25,1)</f>
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26" si="4">CEILING(D25,1)</f>
         <v>7</v>
       </c>
-      <c r="C4" s="2">
-        <f t="shared" si="1"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>266.66666666666669</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="1"/>
-        <v>133.33333333333334</v>
-      </c>
-      <c r="D6" s="2">
-        <f>B7*300/9</f>
-        <v>233.33333333333334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2">
-        <f>A7*300/9</f>
-        <v>166.66666666666666</v>
-      </c>
-      <c r="D7" s="2">
-        <f>B8*300/9</f>
-        <v>66.666666666666671</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>166.66666666666666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="1"/>
-        <v>233.33333333333334</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="1"/>
-        <v>266.66666666666669</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="D11" s="2">
-        <f>B2*300/9</f>
-        <v>133.33333333333334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1">
-        <f>MIN(B2:B11)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1">
-        <f>MAX(B3:B12)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1">
-        <f>AVERAGE(B4:B13)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1">
-        <f>STDEV(B5:B14)</f>
-        <v>2.4404006956964168</v>
+      <c r="E26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>A21+A26*B20</f>
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <f>B21+B26*$C$20</f>
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <f>C21+C26*$C$20</f>
+        <v>84</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27" si="5">D21+D26*$C$20</f>
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4934,7 +7276,373 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC903C74-C88F-4212-8F18-F438B09B03FB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C826C821-FF9A-44ED-9BA5-C55A680AF63A}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2">
+        <v>500</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2005</v>
+      </c>
+      <c r="B3">
+        <v>800</v>
+      </c>
+      <c r="C3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2010</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2015</v>
+      </c>
+      <c r="B5">
+        <v>1500</v>
+      </c>
+      <c r="C5">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2020</v>
+      </c>
+      <c r="B6">
+        <v>2000</v>
+      </c>
+      <c r="C6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2025</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AB892E-AC5C-4475-B05C-C05CBC73E516}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <f>E8</f>
+        <v>500</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>400</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>150</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>200</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="J6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>170</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <f>SUM(E2:E7)</f>
+        <v>500</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <f>SUM(H2:H7)</f>
+        <v>500</v>
+      </c>
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <f>H8</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <f>SUM(B2:B11)</f>
+        <v>4500</v>
+      </c>
+      <c r="C12">
+        <f>B12*12</f>
+        <v>54000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A732BD7-EA3E-419B-8AC9-7C03E7AB2404}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -5076,7 +7784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8D6F23-EA4E-47B3-A513-3DBE6F5374D7}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -5203,6 +7911,1498 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11691336-E1D1-4E21-9DD1-41C108CC0954}">
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" style="16"/>
+    <col min="2" max="2" width="16.85546875" style="86"/>
+    <col min="3" max="3" width="35" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="16.85546875" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="86" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7" s="86" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="86" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="86" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B11" s="86" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B12" s="86" t="s">
+        <v>282</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B13" s="86" t="s">
+        <v>284</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" s="86" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15" s="86" t="s">
+        <v>254</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" s="86" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="B17" s="86" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="86" t="s">
+        <v>262</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="86" t="s">
+        <v>263</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <v>0</v>
+      </c>
+      <c r="B28" s="86">
+        <f>A28*$B$27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
+        <v>1</v>
+      </c>
+      <c r="B29" s="86">
+        <f t="shared" ref="B29:B36" si="0">A29*$B$27</f>
+        <v>20</v>
+      </c>
+      <c r="C29" s="86"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <v>2</v>
+      </c>
+      <c r="B30" s="86">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C30" s="86"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
+        <v>3</v>
+      </c>
+      <c r="B31" s="86">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C31" s="86"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
+        <v>4</v>
+      </c>
+      <c r="B32" s="86">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="C32" s="86"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <v>5</v>
+      </c>
+      <c r="B33" s="86">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C33" s="86"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
+        <v>6</v>
+      </c>
+      <c r="B34" s="86">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C34" s="86"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
+        <v>7</v>
+      </c>
+      <c r="B35" s="86">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="C35" s="86"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
+        <v>8</v>
+      </c>
+      <c r="B36" s="86">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="C36" s="86"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2979D4FA-9988-493D-AAB6-B47FEBE6C467}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="35"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="55"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="65"/>
+    </row>
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="74"/>
+    </row>
+    <row r="6" spans="1:10" s="85" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="87" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="75"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="84"/>
+    </row>
+    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="J11" s="55" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="H12" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="I12" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="J12" s="65" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" s="72" t="s">
+        <v>206</v>
+      </c>
+      <c r="I13" s="73" t="s">
+        <v>207</v>
+      </c>
+      <c r="J13" s="74" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="75" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="78" t="s">
+        <v>213</v>
+      </c>
+      <c r="E15" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="F15" s="80" t="s">
+        <v>215</v>
+      </c>
+      <c r="G15" s="81" t="s">
+        <v>216</v>
+      </c>
+      <c r="H15" s="82" t="s">
+        <v>217</v>
+      </c>
+      <c r="I15" s="83" t="s">
+        <v>218</v>
+      </c>
+      <c r="J15" s="84" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:J6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77465DE-3959-4775-8910-E4FA13014B17}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C1" s="10">
+        <v>2016</v>
+      </c>
+      <c r="D1" s="10">
+        <v>2017</v>
+      </c>
+      <c r="E1" s="10">
+        <v>2018</v>
+      </c>
+      <c r="F1" s="10">
+        <v>2019</v>
+      </c>
+      <c r="G1" s="10">
+        <v>2020</v>
+      </c>
+      <c r="H1" s="10">
+        <v>2021</v>
+      </c>
+      <c r="I1" s="10">
+        <v>2022</v>
+      </c>
+      <c r="J1" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K1" s="10">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9C4BEE-5B7C-46A6-BE34-F6DB7EFA20DC}">
+  <dimension ref="A2:BA11"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="23"/>
+    <col min="2" max="2" width="1.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="1.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="53" width="2.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="9.140625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="B2" s="23">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23">
+        <v>2</v>
+      </c>
+      <c r="D2" s="23">
+        <v>3</v>
+      </c>
+      <c r="E2" s="23">
+        <v>4</v>
+      </c>
+      <c r="F2" s="23">
+        <v>5</v>
+      </c>
+      <c r="G2" s="23">
+        <v>6</v>
+      </c>
+      <c r="H2" s="23">
+        <v>7</v>
+      </c>
+      <c r="I2" s="23">
+        <v>8</v>
+      </c>
+      <c r="J2" s="23">
+        <v>9</v>
+      </c>
+      <c r="K2" s="23">
+        <v>10</v>
+      </c>
+      <c r="L2" s="23">
+        <v>11</v>
+      </c>
+      <c r="M2" s="23">
+        <v>12</v>
+      </c>
+      <c r="N2" s="23">
+        <v>13</v>
+      </c>
+      <c r="O2" s="23">
+        <v>14</v>
+      </c>
+      <c r="P2" s="23">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="23">
+        <v>16</v>
+      </c>
+      <c r="R2" s="23">
+        <v>17</v>
+      </c>
+      <c r="S2" s="23">
+        <v>18</v>
+      </c>
+      <c r="T2" s="23">
+        <v>19</v>
+      </c>
+      <c r="U2" s="23">
+        <v>20</v>
+      </c>
+      <c r="V2" s="23">
+        <v>21</v>
+      </c>
+      <c r="W2" s="23">
+        <v>22</v>
+      </c>
+      <c r="X2" s="23">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="23">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="23">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="23">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="23">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="23">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="23">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="23">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="23">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="23">
+        <v>32</v>
+      </c>
+      <c r="AH2" s="23">
+        <v>33</v>
+      </c>
+      <c r="AI2" s="23">
+        <v>34</v>
+      </c>
+      <c r="AJ2" s="23">
+        <v>35</v>
+      </c>
+      <c r="AK2" s="23">
+        <v>36</v>
+      </c>
+      <c r="AL2" s="23">
+        <v>37</v>
+      </c>
+      <c r="AM2" s="23">
+        <v>38</v>
+      </c>
+      <c r="AN2" s="23">
+        <v>39</v>
+      </c>
+      <c r="AO2" s="23">
+        <v>40</v>
+      </c>
+      <c r="AP2" s="23">
+        <v>41</v>
+      </c>
+      <c r="AQ2" s="23">
+        <v>42</v>
+      </c>
+      <c r="AR2" s="23">
+        <v>43</v>
+      </c>
+      <c r="AS2" s="23">
+        <v>44</v>
+      </c>
+      <c r="AT2" s="23">
+        <v>45</v>
+      </c>
+      <c r="AU2" s="23">
+        <v>46</v>
+      </c>
+      <c r="AV2" s="23">
+        <v>47</v>
+      </c>
+      <c r="AW2" s="23">
+        <v>48</v>
+      </c>
+      <c r="AX2" s="23">
+        <v>49</v>
+      </c>
+      <c r="AY2" s="23">
+        <v>50</v>
+      </c>
+      <c r="AZ2" s="23">
+        <v>51</v>
+      </c>
+      <c r="BA2" s="23">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBECE0EE-173E-4902-B854-0214EB9A1681}">
+  <dimension ref="A2:Y13"/>
+  <sheetViews>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="4.42578125" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B2" s="25">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D2" s="25">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E2" s="25">
+        <v>0.125</v>
+      </c>
+      <c r="F2" s="25">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="G2" s="25">
+        <v>0.20833333333333401</v>
+      </c>
+      <c r="H2" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="I2" s="25">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="J2" s="25">
+        <v>0.33333333333333398</v>
+      </c>
+      <c r="K2" s="25">
+        <v>0.375</v>
+      </c>
+      <c r="L2" s="25">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="M2" s="25">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="N2" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="O2" s="25">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="P2" s="25">
+        <v>0.58333333333333404</v>
+      </c>
+      <c r="Q2" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="R2" s="25">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="S2" s="25">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="T2" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="U2" s="25">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="V2" s="25">
+        <v>0.83333333333333404</v>
+      </c>
+      <c r="W2" s="25">
+        <v>0.875</v>
+      </c>
+      <c r="X2" s="25">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="Y2" s="25">
+        <v>0.95833333333333404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B3" s="24">
+        <v>0</v>
+      </c>
+      <c r="C3" s="24">
+        <v>1</v>
+      </c>
+      <c r="D3" s="24">
+        <v>2</v>
+      </c>
+      <c r="E3" s="24">
+        <v>3</v>
+      </c>
+      <c r="F3" s="24">
+        <v>4</v>
+      </c>
+      <c r="G3" s="24">
+        <v>5</v>
+      </c>
+      <c r="H3" s="24">
+        <v>6</v>
+      </c>
+      <c r="I3" s="24">
+        <v>7</v>
+      </c>
+      <c r="J3" s="24">
+        <v>8</v>
+      </c>
+      <c r="K3" s="24">
+        <v>9</v>
+      </c>
+      <c r="L3" s="24">
+        <v>10</v>
+      </c>
+      <c r="M3" s="24">
+        <v>11</v>
+      </c>
+      <c r="N3" s="24">
+        <v>12</v>
+      </c>
+      <c r="O3" s="24">
+        <v>13</v>
+      </c>
+      <c r="P3" s="24">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="24">
+        <v>15</v>
+      </c>
+      <c r="R3" s="24">
+        <v>16</v>
+      </c>
+      <c r="S3" s="24">
+        <v>17</v>
+      </c>
+      <c r="T3" s="24">
+        <v>18</v>
+      </c>
+      <c r="U3" s="24">
+        <v>19</v>
+      </c>
+      <c r="V3" s="24">
+        <v>20</v>
+      </c>
+      <c r="W3" s="24">
+        <v>21</v>
+      </c>
+      <c r="X3" s="24">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C12" s="24">
+        <v>10</v>
+      </c>
+      <c r="D12" s="24">
+        <v>20</v>
+      </c>
+      <c r="E12" s="24">
+        <v>30</v>
+      </c>
+      <c r="F12" s="24">
+        <v>40</v>
+      </c>
+      <c r="G12" s="24">
+        <v>50</v>
+      </c>
+      <c r="H12" s="24">
+        <v>60</v>
+      </c>
+      <c r="I12" s="24">
+        <v>70</v>
+      </c>
+      <c r="J12" s="24">
+        <v>80</v>
+      </c>
+      <c r="K12" s="24">
+        <v>90</v>
+      </c>
+      <c r="L12" s="24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C13" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3B7159-E648-4A17-87A3-4DEC161F9412}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <f>A2*300/9</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D10" si="0">B3*300/9</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C11" si="1">A3*300/9</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>233.33333333333334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="1"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>266.66666666666669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="1"/>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="D6" s="2">
+        <f>B7*300/9</f>
+        <v>233.33333333333334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <f>A7*300/9</f>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="D7" s="2">
+        <f>B8*300/9</f>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>166.66666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="1"/>
+        <v>233.33333333333334</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>266.66666666666669</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="D11" s="2">
+        <f>B2*300/9</f>
+        <v>133.33333333333334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <f>MIN(B2:B11)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <f>MAX(B3:B12)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <f>AVERAGE(B4:B13)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <f>STDEV(B5:B14)</f>
+        <v>2.4404006956964168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC727EE-B0FC-4C7D-961C-CC5730B4F1FA}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -5338,7 +9538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2786D27-6ADC-45C0-B36F-885854621D2D}">
   <dimension ref="A1:H17"/>
   <sheetViews>
@@ -5352,34 +9552,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20" t="s">
+      <c r="D2" s="89"/>
+      <c r="E2" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20" t="s">
+      <c r="F2" s="89"/>
+      <c r="G2" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="20"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -5734,1868 +9934,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942E0003-48E9-49DF-99D5-B3E52D4AC7F6}">
-  <dimension ref="A1:F20"/>
-  <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="11">
-        <v>63.4</v>
-      </c>
-      <c r="C4" s="11">
-        <v>51.8</v>
-      </c>
-      <c r="D4" s="12">
-        <v>15.4</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="11">
-        <v>64</v>
-      </c>
-      <c r="C5" s="11">
-        <v>82.9</v>
-      </c>
-      <c r="D5" s="12">
-        <v>31.3</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="11">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="C6" s="11">
-        <v>50.8</v>
-      </c>
-      <c r="D6" s="12">
-        <v>28.5</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="11">
-        <v>65.5</v>
-      </c>
-      <c r="C7" s="11">
-        <v>126.4</v>
-      </c>
-      <c r="D7" s="12">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="11">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="C8" s="11">
-        <v>20</v>
-      </c>
-      <c r="D8" s="12">
-        <v>16</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="11">
-        <v>69.2</v>
-      </c>
-      <c r="C9" s="11">
-        <v>57.6</v>
-      </c>
-      <c r="D9" s="12">
-        <v>10.4</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="11">
-        <v>71</v>
-      </c>
-      <c r="C10" s="11">
-        <v>93.2</v>
-      </c>
-      <c r="D10" s="12">
-        <v>24.7</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="11">
-        <v>73.5</v>
-      </c>
-      <c r="C11" s="11">
-        <v>83.1</v>
-      </c>
-      <c r="D11" s="12">
-        <v>10</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="11">
-        <v>74.2</v>
-      </c>
-      <c r="C12" s="11">
-        <v>68.5</v>
-      </c>
-      <c r="D12" s="12">
-        <v>14.5</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="11">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="C13" s="11">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="D13" s="12">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="11">
-        <v>80.3</v>
-      </c>
-      <c r="C14" s="11">
-        <v>86.1</v>
-      </c>
-      <c r="D14" s="12">
-        <v>11.8</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="11">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="C15" s="11">
-        <v>102.5</v>
-      </c>
-      <c r="D15" s="12">
-        <v>12</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="11">
-        <v>80.8</v>
-      </c>
-      <c r="C16" s="11">
-        <v>91.5</v>
-      </c>
-      <c r="D16" s="12">
-        <v>15.8</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="11">
-        <v>86.5</v>
-      </c>
-      <c r="C17" s="11">
-        <v>102.9</v>
-      </c>
-      <c r="D17" s="12">
-        <v>14.7</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="11">
-        <v>95</v>
-      </c>
-      <c r="C18" s="11">
-        <v>95</v>
-      </c>
-      <c r="D18" s="12">
-        <v>13.8</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="6">
-        <f>MIN(B4:B18)</f>
-        <v>63.4</v>
-      </c>
-      <c r="C19" s="6">
-        <f>MIN(C4:C18)</f>
-        <v>20</v>
-      </c>
-      <c r="D19" s="6">
-        <f>MIN(D4:D18)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="6">
-        <f>MAX(B5:B19)</f>
-        <v>95</v>
-      </c>
-      <c r="C20" s="6">
-        <f>MAX(C5:C19)</f>
-        <v>126.4</v>
-      </c>
-      <c r="D20" s="6">
-        <f>MAX(D5:D19)</f>
-        <v>35.299999999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800F772C-0861-4015-AAFD-3D188F3B1B59}">
-  <dimension ref="A1:I34"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="9.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="13"/>
-    <col min="4" max="4" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.140625" style="13"/>
-    <col min="9" max="9" width="10.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15">
-        <f>A2*25.4/96</f>
-        <v>0.26458333333333334</v>
-      </c>
-      <c r="C2" s="16">
-        <f>B2/10</f>
-        <v>2.6458333333333334E-2</v>
-      </c>
-      <c r="D2" s="13">
-        <f>1/B2</f>
-        <v>3.7795275590551181</v>
-      </c>
-      <c r="E2" s="14">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14">
-        <v>25.4</v>
-      </c>
-      <c r="G2" s="14">
-        <v>72</v>
-      </c>
-      <c r="H2" s="14">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>10</v>
-      </c>
-      <c r="B3" s="15">
-        <f t="shared" ref="B3:B33" si="0">A3*25.4/96</f>
-        <v>2.6458333333333335</v>
-      </c>
-      <c r="C3" s="16">
-        <f t="shared" ref="C3:C33" si="1">B3/10</f>
-        <v>0.26458333333333334</v>
-      </c>
-      <c r="D3" s="15">
-        <f>96/F2</f>
-        <v>3.7795275590551185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>15</v>
-      </c>
-      <c r="B4" s="15">
-        <f t="shared" si="0"/>
-        <v>3.96875</v>
-      </c>
-      <c r="C4" s="16">
-        <f t="shared" si="1"/>
-        <v>0.39687499999999998</v>
-      </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>20</v>
-      </c>
-      <c r="B5" s="15">
-        <f t="shared" si="0"/>
-        <v>5.291666666666667</v>
-      </c>
-      <c r="C5" s="16">
-        <f t="shared" si="1"/>
-        <v>0.52916666666666667</v>
-      </c>
-      <c r="H5" s="13">
-        <v>22.998999999999999</v>
-      </c>
-      <c r="I5" s="13">
-        <f>H5*D3*10</f>
-        <v>869.25354330708672</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>30</v>
-      </c>
-      <c r="B6" s="15">
-        <f t="shared" si="0"/>
-        <v>7.9375</v>
-      </c>
-      <c r="C6" s="16">
-        <f t="shared" si="1"/>
-        <v>0.79374999999999996</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="13">
-        <v>1980</v>
-      </c>
-      <c r="G6" s="13">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>40</v>
-      </c>
-      <c r="B7" s="15">
-        <f t="shared" si="0"/>
-        <v>10.583333333333334</v>
-      </c>
-      <c r="C7" s="16">
-        <f t="shared" si="1"/>
-        <v>1.0583333333333333</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>50</v>
-      </c>
-      <c r="B8" s="15">
-        <f t="shared" si="0"/>
-        <v>13.229166666666666</v>
-      </c>
-      <c r="C8" s="16">
-        <f t="shared" si="1"/>
-        <v>1.3229166666666665</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>60</v>
-      </c>
-      <c r="B9" s="15">
-        <f t="shared" si="0"/>
-        <v>15.875</v>
-      </c>
-      <c r="C9" s="16">
-        <f t="shared" si="1"/>
-        <v>1.5874999999999999</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="H9" s="13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>64</v>
-      </c>
-      <c r="B10" s="15">
-        <f t="shared" si="0"/>
-        <v>16.933333333333334</v>
-      </c>
-      <c r="C10" s="16">
-        <f t="shared" si="1"/>
-        <v>1.6933333333333334</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="H10" s="13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>70</v>
-      </c>
-      <c r="B11" s="15">
-        <f t="shared" si="0"/>
-        <v>18.520833333333332</v>
-      </c>
-      <c r="C11" s="16">
-        <f t="shared" si="1"/>
-        <v>1.8520833333333333</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H11" s="13">
-        <v>1</v>
-      </c>
-      <c r="I11" s="17">
-        <f>100/12</f>
-        <v>8.3333333333333339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>72</v>
-      </c>
-      <c r="B12" s="15">
-        <f t="shared" si="0"/>
-        <v>19.05</v>
-      </c>
-      <c r="C12" s="16">
-        <f t="shared" si="1"/>
-        <v>1.905</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="H12" s="13">
-        <v>2</v>
-      </c>
-      <c r="I12" s="17">
-        <f>$I$11*H12</f>
-        <v>16.666666666666668</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>80</v>
-      </c>
-      <c r="B13" s="15">
-        <f t="shared" si="0"/>
-        <v>21.166666666666668</v>
-      </c>
-      <c r="C13" s="16">
-        <f t="shared" si="1"/>
-        <v>2.1166666666666667</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="H13" s="13">
-        <v>3</v>
-      </c>
-      <c r="I13" s="17">
-        <f t="shared" ref="I13:I22" si="2">$I$11*H13</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>90</v>
-      </c>
-      <c r="B14" s="15">
-        <f t="shared" si="0"/>
-        <v>23.8125</v>
-      </c>
-      <c r="C14" s="16">
-        <f t="shared" si="1"/>
-        <v>2.3812500000000001</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="H14" s="13">
-        <v>4</v>
-      </c>
-      <c r="I14" s="17">
-        <f t="shared" si="2"/>
-        <v>33.333333333333336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>100</v>
-      </c>
-      <c r="B15" s="15">
-        <f t="shared" si="0"/>
-        <v>26.458333333333332</v>
-      </c>
-      <c r="C15" s="16">
-        <f t="shared" si="1"/>
-        <v>2.645833333333333</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" s="13">
-        <v>5</v>
-      </c>
-      <c r="I15" s="17">
-        <f t="shared" si="2"/>
-        <v>41.666666666666671</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>150</v>
-      </c>
-      <c r="B16" s="15">
-        <f t="shared" si="0"/>
-        <v>39.6875</v>
-      </c>
-      <c r="C16" s="16">
-        <f t="shared" si="1"/>
-        <v>3.96875</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="H16" s="13">
-        <v>6</v>
-      </c>
-      <c r="I16" s="17">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>200</v>
-      </c>
-      <c r="B17" s="15">
-        <f t="shared" si="0"/>
-        <v>52.916666666666664</v>
-      </c>
-      <c r="C17" s="16">
-        <f t="shared" si="1"/>
-        <v>5.2916666666666661</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="H17" s="13">
-        <v>7</v>
-      </c>
-      <c r="I17" s="17">
-        <f t="shared" si="2"/>
-        <v>58.333333333333336</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>250</v>
-      </c>
-      <c r="B18" s="15">
-        <f t="shared" si="0"/>
-        <v>66.145833333333329</v>
-      </c>
-      <c r="C18" s="16">
-        <f t="shared" si="1"/>
-        <v>6.614583333333333</v>
-      </c>
-      <c r="H18" s="13">
-        <v>8</v>
-      </c>
-      <c r="I18" s="17">
-        <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>300</v>
-      </c>
-      <c r="B19" s="15">
-        <f t="shared" si="0"/>
-        <v>79.375</v>
-      </c>
-      <c r="C19" s="16">
-        <f t="shared" si="1"/>
-        <v>7.9375</v>
-      </c>
-      <c r="H19" s="13">
-        <v>9</v>
-      </c>
-      <c r="I19" s="17">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>360</v>
-      </c>
-      <c r="B20" s="15">
-        <f t="shared" si="0"/>
-        <v>95.25</v>
-      </c>
-      <c r="C20" s="16">
-        <f t="shared" si="1"/>
-        <v>9.5250000000000004</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E20" s="13">
-        <v>640</v>
-      </c>
-      <c r="H20" s="13">
-        <v>10</v>
-      </c>
-      <c r="I20" s="17">
-        <f t="shared" si="2"/>
-        <v>83.333333333333343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>400</v>
-      </c>
-      <c r="B21" s="15">
-        <f t="shared" si="0"/>
-        <v>105.83333333333333</v>
-      </c>
-      <c r="C21" s="16">
-        <f t="shared" si="1"/>
-        <v>10.583333333333332</v>
-      </c>
-      <c r="H21" s="13">
-        <v>11</v>
-      </c>
-      <c r="I21" s="17">
-        <f t="shared" si="2"/>
-        <v>91.666666666666671</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>500</v>
-      </c>
-      <c r="B22" s="15">
-        <f t="shared" si="0"/>
-        <v>132.29166666666666</v>
-      </c>
-      <c r="C22" s="16">
-        <f t="shared" si="1"/>
-        <v>13.229166666666666</v>
-      </c>
-      <c r="H22" s="13">
-        <v>12</v>
-      </c>
-      <c r="I22" s="17">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>600</v>
-      </c>
-      <c r="B23" s="15">
-        <f t="shared" si="0"/>
-        <v>158.75</v>
-      </c>
-      <c r="C23" s="16">
-        <f t="shared" si="1"/>
-        <v>15.875</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="E23" s="13">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <v>768</v>
-      </c>
-      <c r="B24" s="15">
-        <f t="shared" si="0"/>
-        <v>203.19999999999996</v>
-      </c>
-      <c r="C24" s="16">
-        <f t="shared" si="1"/>
-        <v>20.319999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>800</v>
-      </c>
-      <c r="B25" s="15">
-        <f t="shared" si="0"/>
-        <v>211.66666666666666</v>
-      </c>
-      <c r="C25" s="16">
-        <f t="shared" si="1"/>
-        <v>21.166666666666664</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>1024</v>
-      </c>
-      <c r="B26" s="15">
-        <f t="shared" si="0"/>
-        <v>270.93333333333334</v>
-      </c>
-      <c r="C26" s="16">
-        <f t="shared" si="1"/>
-        <v>27.093333333333334</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" s="13">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <v>1080</v>
-      </c>
-      <c r="B27" s="15">
-        <f t="shared" si="0"/>
-        <v>285.75</v>
-      </c>
-      <c r="C27" s="16">
-        <f t="shared" si="1"/>
-        <v>28.574999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
-        <v>1280</v>
-      </c>
-      <c r="B28" s="15">
-        <f t="shared" si="0"/>
-        <v>338.66666666666669</v>
-      </c>
-      <c r="C28" s="16">
-        <f t="shared" si="1"/>
-        <v>33.866666666666667</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E28" s="13">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
-        <v>1440</v>
-      </c>
-      <c r="B29" s="15">
-        <f t="shared" si="0"/>
-        <v>381</v>
-      </c>
-      <c r="C29" s="16">
-        <f t="shared" si="1"/>
-        <v>38.1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
-        <v>1600</v>
-      </c>
-      <c r="B30" s="15">
-        <f t="shared" si="0"/>
-        <v>423.33333333333331</v>
-      </c>
-      <c r="C30" s="16">
-        <f t="shared" si="1"/>
-        <v>42.333333333333329</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
-        <v>1920</v>
-      </c>
-      <c r="B31" s="15">
-        <f t="shared" si="0"/>
-        <v>508</v>
-      </c>
-      <c r="C31" s="16">
-        <f t="shared" si="1"/>
-        <v>50.8</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E31" s="13">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <v>2560</v>
-      </c>
-      <c r="B32" s="15">
-        <f t="shared" si="0"/>
-        <v>677.33333333333337</v>
-      </c>
-      <c r="C32" s="16">
-        <f t="shared" si="1"/>
-        <v>67.733333333333334</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E32" s="13">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
-        <f>1920/12</f>
-        <v>160</v>
-      </c>
-      <c r="B33" s="15">
-        <f t="shared" si="0"/>
-        <v>42.333333333333336</v>
-      </c>
-      <c r="C33" s="16">
-        <f t="shared" si="1"/>
-        <v>4.2333333333333334</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="13">
-        <f>C33*3</f>
-        <v>12.7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E5C042-D3E4-470D-B2D9-35B99FD8519A}">
-  <dimension ref="A1:E27"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="C3">
-        <v>80.8</v>
-      </c>
-      <c r="D3">
-        <v>41.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>30.9</v>
-      </c>
-      <c r="C4">
-        <v>69.5</v>
-      </c>
-      <c r="D4">
-        <v>32.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>25.4</v>
-      </c>
-      <c r="C5">
-        <v>57</v>
-      </c>
-      <c r="D5">
-        <v>25.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>11.7</v>
-      </c>
-      <c r="C6">
-        <v>18.8</v>
-      </c>
-      <c r="D6">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>11.9</v>
-      </c>
-      <c r="C7">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="D7">
-        <v>10.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="C8">
-        <v>13.6</v>
-      </c>
-      <c r="D8">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>7.6</v>
-      </c>
-      <c r="C9">
-        <v>12.3</v>
-      </c>
-      <c r="D9">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>12.3</v>
-      </c>
-      <c r="C10">
-        <v>29.2</v>
-      </c>
-      <c r="D10">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="C11">
-        <v>42.9</v>
-      </c>
-      <c r="D11">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>12.8</v>
-      </c>
-      <c r="C12">
-        <v>30.9</v>
-      </c>
-      <c r="D12">
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>5.3</v>
-      </c>
-      <c r="C13">
-        <v>7.9</v>
-      </c>
-      <c r="D13">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>6.6</v>
-      </c>
-      <c r="C14">
-        <v>8.4</v>
-      </c>
-      <c r="D14">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>4.8</v>
-      </c>
-      <c r="C15">
-        <v>6.3</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>4.2</v>
-      </c>
-      <c r="C16">
-        <v>6.2</v>
-      </c>
-      <c r="D16">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f>MIN(A3:A16)</f>
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <f t="shared" ref="B18:D18" si="0">MIN(B3:B16)</f>
-        <v>4.2</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>6.2</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f>MAX(A3:A16)</f>
-        <v>14</v>
-      </c>
-      <c r="B19">
-        <f t="shared" ref="B19:D19" si="1">MAX(B3:B16)</f>
-        <v>37.799999999999997</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
-        <v>80.8</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>41.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20">
-        <v>9</v>
-      </c>
-      <c r="C20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f>FLOOR(A18,1)</f>
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <f t="shared" ref="B21:D21" si="2">FLOOR(B18,1)</f>
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f>CEILING(A19,1)</f>
-        <v>14</v>
-      </c>
-      <c r="B22">
-        <f t="shared" ref="B22:D22" si="3">CEILING(B19,1)</f>
-        <v>38</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="3"/>
-        <v>81</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>4</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>9</v>
-      </c>
-      <c r="D24">
-        <f>A24+B24*C24</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
-        <f>(A22-A21)/B20</f>
-        <v>1.4444444444444444</v>
-      </c>
-      <c r="B25" s="19">
-        <f>(B22-B21)/$C$20</f>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="C25" s="19">
-        <f>(C22-C21)/$C$20</f>
-        <v>12.5</v>
-      </c>
-      <c r="D25" s="19">
-        <f>(D22-D21)/$C$20</f>
-        <v>6.5</v>
-      </c>
-      <c r="E25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f>CEILING(A25,1)</f>
-        <v>2</v>
-      </c>
-      <c r="B26">
-        <f>CEILING(B25,1)</f>
-        <v>6</v>
-      </c>
-      <c r="C26">
-        <f>CEILING(C25,1)</f>
-        <v>13</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ref="D26" si="4">CEILING(D25,1)</f>
-        <v>7</v>
-      </c>
-      <c r="E26" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f>A21+A26*B20</f>
-        <v>19</v>
-      </c>
-      <c r="B27">
-        <f>B21+B26*$C$20</f>
-        <v>40</v>
-      </c>
-      <c r="C27">
-        <f>C21+C26*$C$20</f>
-        <v>84</v>
-      </c>
-      <c r="D27">
-        <f t="shared" ref="D27" si="5">D21+D26*$C$20</f>
-        <v>45</v>
-      </c>
-      <c r="E27" t="s">
-        <v>165</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC903C74-C88F-4212-8F18-F438B09B03FB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C826C821-FF9A-44ED-9BA5-C55A680AF63A}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2000</v>
-      </c>
-      <c r="B2">
-        <v>500</v>
-      </c>
-      <c r="C2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2005</v>
-      </c>
-      <c r="B3">
-        <v>800</v>
-      </c>
-      <c r="C3">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2010</v>
-      </c>
-      <c r="B4">
-        <v>1000</v>
-      </c>
-      <c r="C4">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2015</v>
-      </c>
-      <c r="B5">
-        <v>1500</v>
-      </c>
-      <c r="C5">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2020</v>
-      </c>
-      <c r="B6">
-        <v>2000</v>
-      </c>
-      <c r="C6">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2025</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AB892E-AC5C-4475-B05C-C05CBC73E516}">
-  <dimension ref="A1:M12"/>
-  <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>2000</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2">
-        <v>40</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2">
-        <v>60</v>
-      </c>
-      <c r="J2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <f>E8</f>
-        <v>500</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3">
-        <v>60</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3">
-        <v>40</v>
-      </c>
-      <c r="J3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4">
-        <v>50</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4">
-        <v>50</v>
-      </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>400</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5">
-        <v>150</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5">
-        <v>200</v>
-      </c>
-      <c r="J5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-      <c r="J6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7">
-        <v>170</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7">
-        <v>50</v>
-      </c>
-      <c r="J7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8">
-        <f>SUM(E2:E7)</f>
-        <v>500</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8">
-        <f>SUM(H2:H7)</f>
-        <v>500</v>
-      </c>
-      <c r="J8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10">
-        <f>H8</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12">
-        <f>SUM(B2:B11)</f>
-        <v>4500</v>
-      </c>
-      <c r="C12">
-        <f>B12*12</f>
-        <v>54000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,27 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JS-SVG-Client\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F020E4-9ED3-439B-AD57-CD012E39AB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5754011B-6E8F-4111-913F-848C7CBC5C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{ACF4154E-FD6B-4497-B4DB-14320FF8EFDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="851" activeTab="3" xr2:uid="{ACF4154E-FD6B-4497-B4DB-14320FF8EFDB}"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="9" r:id="rId1"/>
     <sheet name="gauge" sheetId="17" r:id="rId2"/>
-    <sheet name="Colors" sheetId="16" r:id="rId3"/>
-    <sheet name="heatmap-yearly" sheetId="12" r:id="rId4"/>
-    <sheet name="heatmap-monthly" sheetId="13" r:id="rId5"/>
-    <sheet name="heatmap-daily" sheetId="14" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
-    <sheet name="sport" sheetId="2" r:id="rId8"/>
-    <sheet name="Anscombe" sheetId="7" r:id="rId9"/>
-    <sheet name="Bubble" sheetId="8" r:id="rId10"/>
-    <sheet name="Movies" sheetId="10" r:id="rId11"/>
-    <sheet name="metal-gold" sheetId="11" r:id="rId12"/>
-    <sheet name="population" sheetId="6" r:id="rId13"/>
-    <sheet name="expenses" sheetId="3" r:id="rId14"/>
-    <sheet name="sales" sheetId="4" r:id="rId15"/>
-    <sheet name="temperature" sheetId="5" r:id="rId16"/>
+    <sheet name="automotive" sheetId="18" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="20" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="19" r:id="rId5"/>
+    <sheet name="Colors" sheetId="16" r:id="rId6"/>
+    <sheet name="heatmap-yearly" sheetId="12" r:id="rId7"/>
+    <sheet name="heatmap-monthly" sheetId="13" r:id="rId8"/>
+    <sheet name="heatmap-daily" sheetId="14" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId10"/>
+    <sheet name="sport" sheetId="2" r:id="rId11"/>
+    <sheet name="Anscombe" sheetId="7" r:id="rId12"/>
+    <sheet name="Bubble" sheetId="8" r:id="rId13"/>
+    <sheet name="Movies" sheetId="10" r:id="rId14"/>
+    <sheet name="metal-gold" sheetId="11" r:id="rId15"/>
+    <sheet name="population" sheetId="6" r:id="rId16"/>
+    <sheet name="expenses" sheetId="3" r:id="rId17"/>
+    <sheet name="sales" sheetId="4" r:id="rId18"/>
+    <sheet name="temperature" sheetId="5" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="Format_as_Hexadecimal">Colors!$C$22</definedName>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="421">
   <si>
     <t>x</t>
   </si>
@@ -954,6 +957,360 @@
   </si>
   <si>
     <t>isGaugeValueOn</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>2018-19</t>
+  </si>
+  <si>
+    <t>2019-20</t>
+  </si>
+  <si>
+    <t>2020-21</t>
+  </si>
+  <si>
+    <t>2021-22</t>
+  </si>
+  <si>
+    <t>2022-23</t>
+  </si>
+  <si>
+    <t>2023-24</t>
+  </si>
+  <si>
+    <t>Passenger Vehicles</t>
+  </si>
+  <si>
+    <t>33,77,389</t>
+  </si>
+  <si>
+    <t>27,73,519</t>
+  </si>
+  <si>
+    <t>27,11,457</t>
+  </si>
+  <si>
+    <t>30,69,523</t>
+  </si>
+  <si>
+    <t>38,90,114</t>
+  </si>
+  <si>
+    <t>42 18,746</t>
+  </si>
+  <si>
+    <t>Commercial Vehicles</t>
+  </si>
+  <si>
+    <t>10,07,311</t>
+  </si>
+  <si>
+    <t>7,17,593</t>
+  </si>
+  <si>
+    <t>5,68,559</t>
+  </si>
+  <si>
+    <t>7,16,566</t>
+  </si>
+  <si>
+    <t>9,62,468</t>
+  </si>
+  <si>
+    <t>9,67,878</t>
+  </si>
+  <si>
+    <t>Three Wheelers</t>
+  </si>
+  <si>
+    <t>7,01,005</t>
+  </si>
+  <si>
+    <t>6,37,065</t>
+  </si>
+  <si>
+    <t>2,19,446</t>
+  </si>
+  <si>
+    <t>2,61,385</t>
+  </si>
+  <si>
+    <t>4,88,768</t>
+  </si>
+  <si>
+    <t>6,91,749</t>
+  </si>
+  <si>
+    <t>Two Wheelers</t>
+  </si>
+  <si>
+    <t>2,11,79,847</t>
+  </si>
+  <si>
+    <t>1,74,16,432</t>
+  </si>
+  <si>
+    <t>1,51,20,783</t>
+  </si>
+  <si>
+    <t>1,35,70,008</t>
+  </si>
+  <si>
+    <t>1,58,62,087</t>
+  </si>
+  <si>
+    <t>1,79,74,365</t>
+  </si>
+  <si>
+    <t>Quadricycles</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>2,62,66,179</t>
+  </si>
+  <si>
+    <t>2,15,45,551</t>
+  </si>
+  <si>
+    <t>1,86,20,233</t>
+  </si>
+  <si>
+    <t>1,76,17,606</t>
+  </si>
+  <si>
+    <t>2,12,04,162</t>
+  </si>
+  <si>
+    <t>2,38,53,463</t>
+  </si>
+  <si>
+    <t>https://www.siam.in/statistics.aspx?mpgid=8&amp;pgidtrail=14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Automobile Domestic Sales Trends</t>
+  </si>
+  <si>
+    <t>Automobile Production Trends </t>
+  </si>
+  <si>
+    <t>40,28,471</t>
+  </si>
+  <si>
+    <t>30,62,280</t>
+  </si>
+  <si>
+    <t>36,50,698</t>
+  </si>
+  <si>
+    <t>45,87,116</t>
+  </si>
+  <si>
+    <t> 49,01,844</t>
+  </si>
+  <si>
+    <t>11,12,405</t>
+  </si>
+  <si>
+    <t>7,56,725</t>
+  </si>
+  <si>
+    <t>6,24,939</t>
+  </si>
+  <si>
+    <t>8,05,527</t>
+  </si>
+  <si>
+    <t>10,35,626</t>
+  </si>
+  <si>
+    <t>10.66,429</t>
+  </si>
+  <si>
+    <t>12,68,833</t>
+  </si>
+  <si>
+    <t>6,14,613</t>
+  </si>
+  <si>
+    <t>7,58,669</t>
+  </si>
+  <si>
+    <t>8,55,696</t>
+  </si>
+  <si>
+    <t>9,92,936</t>
+  </si>
+  <si>
+    <t>2,44,99,777</t>
+  </si>
+  <si>
+    <t>2,10,32,927</t>
+  </si>
+  <si>
+    <t>1,78,21,111</t>
+  </si>
+  <si>
+    <t>1,94,59,009</t>
+  </si>
+  <si>
+    <t>2,14,68,527</t>
+  </si>
+  <si>
+    <t>3,09,14,874</t>
+  </si>
+  <si>
+    <t>2,63,53,293</t>
+  </si>
+  <si>
+    <t>2,26,55,609</t>
+  </si>
+  <si>
+    <t>2,30,40,066</t>
+  </si>
+  <si>
+    <t>2,59,40,344</t>
+  </si>
+  <si>
+    <t>2,84,34,742</t>
+  </si>
+  <si>
+    <t>Automobile Exports Trends</t>
+  </si>
+  <si>
+    <t>6,76,192</t>
+  </si>
+  <si>
+    <t>6,62,118</t>
+  </si>
+  <si>
+    <t>4,04,397</t>
+  </si>
+  <si>
+    <t>5,77,875</t>
+  </si>
+  <si>
+    <t>6,62,891</t>
+  </si>
+  <si>
+    <t>6,72,105</t>
+  </si>
+  <si>
+    <t>5,67,683</t>
+  </si>
+  <si>
+    <t>5,01,651</t>
+  </si>
+  <si>
+    <t>3,93,001</t>
+  </si>
+  <si>
+    <t>4,99,730</t>
+  </si>
+  <si>
+    <t>3,65,549</t>
+  </si>
+  <si>
+    <t>2,99,977</t>
+  </si>
+  <si>
+    <t>32,80,841</t>
+  </si>
+  <si>
+    <t>35,19,405</t>
+  </si>
+  <si>
+    <t>32,82,786</t>
+  </si>
+  <si>
+    <t>44,43,131</t>
+  </si>
+  <si>
+    <t>36,52,122</t>
+  </si>
+  <si>
+    <t>34,58,416</t>
+  </si>
+  <si>
+    <t>46,29,049</t>
+  </si>
+  <si>
+    <t>47,48,738</t>
+  </si>
+  <si>
+    <t>41,34,047</t>
+  </si>
+  <si>
+    <t>56,17,359</t>
+  </si>
+  <si>
+    <t>47,61,487</t>
+  </si>
+  <si>
+    <t>45,00,492</t>
+  </si>
+  <si>
+    <t>Sales overseas</t>
+  </si>
+  <si>
+    <t>Passenger cars</t>
+  </si>
+  <si>
+    <t>Trucks &amp; buses</t>
+  </si>
+  <si>
+    <t>Sales Volume Overseas</t>
+  </si>
+  <si>
+    <t>https://www.toyota-global.com/company/history_of_toyota/75years/data/automotive_business/sales/sales_volume/overseas/index.html</t>
+  </si>
+  <si>
+    <t>Sales Overseas by Region</t>
+  </si>
+  <si>
+    <t>https://www.toyota-global.com/company/history_of_toyota/75years/data/automotive_business/sales/sales_volume/overseas/region.html</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>Latin America</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Middle East</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>Source: TOYOTA IN THE WORLD</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Regional categories are as defined by the Japan Automobile Manufacturers Association, Inc. Asia data excludes China, which is calculated separately.</t>
+  </si>
+  <si>
+    <t>Units include both Toyota and Lexus sales.</t>
+  </si>
+  <si>
+    <t>Decimals are rounded. Not all regional figures add up to their totals.</t>
   </si>
 </sst>
 </file>
@@ -965,7 +1322,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1042,8 +1399,24 @@
       <sz val="11"/>
       <name val="Consolas"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="61">
+  <fills count="63">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1404,6 +1777,18 @@
         <bgColor rgb="FF7030A0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD39E41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5E5E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1443,7 +1828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1586,6 +1971,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6476,6 +6894,769 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3B7159-E648-4A17-87A3-4DEC161F9412}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <f>A2*300/9</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D10" si="0">B3*300/9</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C11" si="1">A3*300/9</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>233.33333333333334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="1"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>266.66666666666669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="1"/>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="D6" s="2">
+        <f>B7*300/9</f>
+        <v>233.33333333333334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <f>A7*300/9</f>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="D7" s="2">
+        <f>B8*300/9</f>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>166.66666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="1"/>
+        <v>233.33333333333334</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>266.66666666666669</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="D11" s="2">
+        <f>B2*300/9</f>
+        <v>133.33333333333334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <f>MIN(B2:B11)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <f>MAX(B3:B12)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <f>AVERAGE(B4:B13)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <f>STDEV(B5:B14)</f>
+        <v>2.4404006956964168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC727EE-B0FC-4C7D-961C-CC5730B4F1FA}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6">
+        <f>B2*100/$B$8</f>
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f>B2*6/30</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C8" si="0">B3*100/$B$8</f>
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E7" si="1">B3*6/30</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <f>B4*6/30</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B2:B7)</f>
+        <v>100</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2786D27-6ADC-45C0-B36F-885854621D2D}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="89"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="C4" s="7">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <v>9.14</v>
+      </c>
+      <c r="E4" s="7">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7">
+        <v>7.46</v>
+      </c>
+      <c r="G4" s="7">
+        <v>8</v>
+      </c>
+      <c r="H4" s="7">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7">
+        <v>6.95</v>
+      </c>
+      <c r="C5" s="7">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7">
+        <v>8.14</v>
+      </c>
+      <c r="E5" s="7">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7">
+        <v>6.77</v>
+      </c>
+      <c r="G5" s="7">
+        <v>8</v>
+      </c>
+      <c r="H5" s="7">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7">
+        <v>7.58</v>
+      </c>
+      <c r="C6" s="7">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8.74</v>
+      </c>
+      <c r="E6" s="7">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7">
+        <v>12.74</v>
+      </c>
+      <c r="G6" s="7">
+        <v>8</v>
+      </c>
+      <c r="H6" s="7">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7">
+        <v>8.81</v>
+      </c>
+      <c r="C7" s="7">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7">
+        <v>8.77</v>
+      </c>
+      <c r="E7" s="7">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7">
+        <v>7.11</v>
+      </c>
+      <c r="G7" s="7">
+        <v>8</v>
+      </c>
+      <c r="H7" s="7">
+        <v>8.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7">
+        <v>8.33</v>
+      </c>
+      <c r="C8" s="7">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7">
+        <v>9.26</v>
+      </c>
+      <c r="E8" s="7">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7">
+        <v>7.81</v>
+      </c>
+      <c r="G8" s="7">
+        <v>8</v>
+      </c>
+      <c r="H8" s="7">
+        <v>8.4700000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="C9" s="7">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7">
+        <v>8.84</v>
+      </c>
+      <c r="G9" s="7">
+        <v>8</v>
+      </c>
+      <c r="H9" s="7">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7">
+        <v>7.24</v>
+      </c>
+      <c r="C10" s="7">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6.13</v>
+      </c>
+      <c r="E10" s="7">
+        <v>6</v>
+      </c>
+      <c r="F10" s="7">
+        <v>6.08</v>
+      </c>
+      <c r="G10" s="7">
+        <v>8</v>
+      </c>
+      <c r="H10" s="7">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7">
+        <v>4.26</v>
+      </c>
+      <c r="C11" s="7">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4</v>
+      </c>
+      <c r="F11" s="7">
+        <v>5.39</v>
+      </c>
+      <c r="G11" s="7">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7">
+        <v>10.84</v>
+      </c>
+      <c r="C12" s="7">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="E12" s="7">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7">
+        <v>8.15</v>
+      </c>
+      <c r="G12" s="7">
+        <v>8</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7">
+        <v>4.82</v>
+      </c>
+      <c r="C13" s="7">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7">
+        <v>7.26</v>
+      </c>
+      <c r="E13" s="7">
+        <v>7</v>
+      </c>
+      <c r="F13" s="7">
+        <v>6.42</v>
+      </c>
+      <c r="G13" s="7">
+        <v>8</v>
+      </c>
+      <c r="H13" s="7">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>5</v>
+      </c>
+      <c r="B14" s="7">
+        <v>5.68</v>
+      </c>
+      <c r="C14" s="7">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4.74</v>
+      </c>
+      <c r="E14" s="7">
+        <v>5</v>
+      </c>
+      <c r="F14" s="7">
+        <v>5.73</v>
+      </c>
+      <c r="G14" s="7">
+        <v>8</v>
+      </c>
+      <c r="H14" s="7">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <f>MIN(A4:A14)</f>
+        <v>4</v>
+      </c>
+      <c r="B15" s="10">
+        <f>MIN(B4:B14)</f>
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <f>MAX(A4:A14)</f>
+        <v>14</v>
+      </c>
+      <c r="B16" s="10">
+        <f>MAX(B4:B14)</f>
+        <v>10.84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <f>SUM(A4:A14)</f>
+        <v>99</v>
+      </c>
+      <c r="B17" s="10">
+        <f>SUM(B4:B14)</f>
+        <v>82.510000000000019</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942E0003-48E9-49DF-99D5-B3E52D4AC7F6}">
   <dimension ref="A1:F20"/>
   <sheetViews>
@@ -6869,7 +8050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E5C042-D3E4-470D-B2D9-35B99FD8519A}">
   <dimension ref="A1:E27"/>
   <sheetViews>
@@ -7276,7 +8457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC903C74-C88F-4212-8F18-F438B09B03FB}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7294,7 +8475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C826C821-FF9A-44ED-9BA5-C55A680AF63A}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -7380,7 +8561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AB892E-AC5C-4475-B05C-C05CBC73E516}">
   <dimension ref="A1:M12"/>
   <sheetViews>
@@ -7642,7 +8823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A732BD7-EA3E-419B-8AC9-7C03E7AB2404}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -7784,7 +8965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8D6F23-EA4E-47B3-A513-3DBE6F5374D7}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -7914,7 +9095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11691336-E1D1-4E21-9DD1-41C108CC0954}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -8265,6 +9446,1923 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6282AC82-FA51-4E9E-B61D-1A9BEB3510F6}">
+  <dimension ref="A3:J110"/>
+  <sheetViews>
+    <sheetView topLeftCell="A88" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103:A110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G4" t="s">
+        <v>309</v>
+      </c>
+      <c r="I4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F6" t="s">
+        <v>322</v>
+      </c>
+      <c r="G6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D8" t="s">
+        <v>334</v>
+      </c>
+      <c r="E8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F8" t="s">
+        <v>336</v>
+      </c>
+      <c r="G8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B9">
+        <v>627</v>
+      </c>
+      <c r="C9">
+        <v>942</v>
+      </c>
+      <c r="D9">
+        <v>-12</v>
+      </c>
+      <c r="E9">
+        <v>124</v>
+      </c>
+      <c r="F9">
+        <v>725</v>
+      </c>
+      <c r="G9">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C10" t="s">
+        <v>341</v>
+      </c>
+      <c r="D10" t="s">
+        <v>342</v>
+      </c>
+      <c r="E10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F10" t="s">
+        <v>344</v>
+      </c>
+      <c r="G10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="98" t="s">
+        <v>303</v>
+      </c>
+      <c r="B16" s="98" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16" s="98" t="s">
+        <v>305</v>
+      </c>
+      <c r="D16" s="98" t="s">
+        <v>306</v>
+      </c>
+      <c r="E16" s="98" t="s">
+        <v>307</v>
+      </c>
+      <c r="F16" s="98" t="s">
+        <v>308</v>
+      </c>
+      <c r="G16" s="98" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C17" s="99">
+        <v>3424564</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" s="99">
+        <v>1132982</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D20" s="99">
+        <v>18349941</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B21" s="99">
+        <v>5388</v>
+      </c>
+      <c r="C21" s="99">
+        <v>6095</v>
+      </c>
+      <c r="D21" s="99">
+        <v>3836</v>
+      </c>
+      <c r="E21" s="99">
+        <v>4061</v>
+      </c>
+      <c r="F21" s="99">
+        <v>2897</v>
+      </c>
+      <c r="G21" s="99">
+        <v>5006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="100" t="s">
+        <v>339</v>
+      </c>
+      <c r="B22" s="100" t="s">
+        <v>370</v>
+      </c>
+      <c r="C22" s="100" t="s">
+        <v>371</v>
+      </c>
+      <c r="D22" s="100" t="s">
+        <v>372</v>
+      </c>
+      <c r="E22" s="100" t="s">
+        <v>373</v>
+      </c>
+      <c r="F22" s="100" t="s">
+        <v>374</v>
+      </c>
+      <c r="G22" s="100" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="97" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="94" t="s">
+        <v>303</v>
+      </c>
+      <c r="B27" s="96" t="s">
+        <v>304</v>
+      </c>
+      <c r="C27" s="96" t="s">
+        <v>305</v>
+      </c>
+      <c r="D27" s="96" t="s">
+        <v>306</v>
+      </c>
+      <c r="E27" s="96" t="s">
+        <v>307</v>
+      </c>
+      <c r="F27" s="96" t="s">
+        <v>308</v>
+      </c>
+      <c r="G27" s="96" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="93" t="s">
+        <v>310</v>
+      </c>
+      <c r="B28" s="95" t="s">
+        <v>377</v>
+      </c>
+      <c r="C28" s="95" t="s">
+        <v>378</v>
+      </c>
+      <c r="D28" s="95" t="s">
+        <v>379</v>
+      </c>
+      <c r="E28" s="95" t="s">
+        <v>380</v>
+      </c>
+      <c r="F28" s="95" t="s">
+        <v>381</v>
+      </c>
+      <c r="G28" s="95" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="93" t="s">
+        <v>317</v>
+      </c>
+      <c r="B29" s="101">
+        <v>99933</v>
+      </c>
+      <c r="C29" s="101">
+        <v>60379</v>
+      </c>
+      <c r="D29" s="101">
+        <v>50334</v>
+      </c>
+      <c r="E29" s="101">
+        <v>92297</v>
+      </c>
+      <c r="F29" s="101">
+        <v>78645</v>
+      </c>
+      <c r="G29" s="101">
+        <v>65816</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="93" t="s">
+        <v>324</v>
+      </c>
+      <c r="B30" s="95" t="s">
+        <v>383</v>
+      </c>
+      <c r="C30" s="95" t="s">
+        <v>384</v>
+      </c>
+      <c r="D30" s="95" t="s">
+        <v>385</v>
+      </c>
+      <c r="E30" s="95" t="s">
+        <v>386</v>
+      </c>
+      <c r="F30" s="95" t="s">
+        <v>387</v>
+      </c>
+      <c r="G30" s="95" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="93" t="s">
+        <v>331</v>
+      </c>
+      <c r="B31" s="95" t="s">
+        <v>389</v>
+      </c>
+      <c r="C31" s="95" t="s">
+        <v>390</v>
+      </c>
+      <c r="D31" s="95" t="s">
+        <v>391</v>
+      </c>
+      <c r="E31" s="95" t="s">
+        <v>392</v>
+      </c>
+      <c r="F31" s="95" t="s">
+        <v>393</v>
+      </c>
+      <c r="G31" s="95" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="93" t="s">
+        <v>338</v>
+      </c>
+      <c r="B32" s="101">
+        <v>4400</v>
+      </c>
+      <c r="C32" s="101">
+        <v>5185</v>
+      </c>
+      <c r="D32" s="101">
+        <v>3529</v>
+      </c>
+      <c r="E32" s="101">
+        <v>4326</v>
+      </c>
+      <c r="F32" s="101">
+        <v>2280</v>
+      </c>
+      <c r="G32" s="101">
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="94" t="s">
+        <v>339</v>
+      </c>
+      <c r="B33" s="96" t="s">
+        <v>395</v>
+      </c>
+      <c r="C33" s="96" t="s">
+        <v>396</v>
+      </c>
+      <c r="D33" s="96" t="s">
+        <v>397</v>
+      </c>
+      <c r="E33" s="96" t="s">
+        <v>398</v>
+      </c>
+      <c r="F33" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="G33" s="96" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="97" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="89" t="s">
+        <v>401</v>
+      </c>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89" t="s">
+        <v>402</v>
+      </c>
+      <c r="F39" s="89" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="89"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>1975</v>
+      </c>
+      <c r="B41" s="99">
+        <v>900808</v>
+      </c>
+      <c r="C41" s="99">
+        <v>652643</v>
+      </c>
+      <c r="D41" s="99">
+        <v>248165</v>
+      </c>
+      <c r="E41" s="3">
+        <v>72</v>
+      </c>
+      <c r="F41" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>1976</v>
+      </c>
+      <c r="B42" s="99">
+        <v>1071980</v>
+      </c>
+      <c r="C42" s="99">
+        <v>775921</v>
+      </c>
+      <c r="D42" s="99">
+        <v>296059</v>
+      </c>
+      <c r="E42" s="3">
+        <v>72</v>
+      </c>
+      <c r="F42" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>1977</v>
+      </c>
+      <c r="B43" s="99">
+        <v>1399581</v>
+      </c>
+      <c r="C43" s="99">
+        <v>974404</v>
+      </c>
+      <c r="D43" s="99">
+        <v>425177</v>
+      </c>
+      <c r="E43" s="3">
+        <v>70</v>
+      </c>
+      <c r="F43" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>1978</v>
+      </c>
+      <c r="B44" s="99">
+        <v>1375054</v>
+      </c>
+      <c r="C44" s="99">
+        <v>909220</v>
+      </c>
+      <c r="D44" s="99">
+        <v>465834</v>
+      </c>
+      <c r="E44" s="3">
+        <v>66</v>
+      </c>
+      <c r="F44" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>1979</v>
+      </c>
+      <c r="B45" s="99">
+        <v>1449313</v>
+      </c>
+      <c r="C45" s="99">
+        <v>964691</v>
+      </c>
+      <c r="D45" s="99">
+        <v>484622</v>
+      </c>
+      <c r="E45" s="3">
+        <v>67</v>
+      </c>
+      <c r="F45" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>1980</v>
+      </c>
+      <c r="B46" s="99">
+        <v>1845955</v>
+      </c>
+      <c r="C46" s="99">
+        <v>1229877</v>
+      </c>
+      <c r="D46" s="99">
+        <v>616078</v>
+      </c>
+      <c r="E46" s="3">
+        <v>67</v>
+      </c>
+      <c r="F46" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>1981</v>
+      </c>
+      <c r="B47" s="99">
+        <v>1848778</v>
+      </c>
+      <c r="C47" s="99">
+        <v>1197086</v>
+      </c>
+      <c r="D47" s="99">
+        <v>651692</v>
+      </c>
+      <c r="E47" s="3">
+        <v>65</v>
+      </c>
+      <c r="F47" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>1982</v>
+      </c>
+      <c r="B48" s="99">
+        <v>1823241</v>
+      </c>
+      <c r="C48" s="99">
+        <v>1164432</v>
+      </c>
+      <c r="D48" s="99">
+        <v>658809</v>
+      </c>
+      <c r="E48" s="3">
+        <v>64</v>
+      </c>
+      <c r="F48" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>1983</v>
+      </c>
+      <c r="B49" s="99">
+        <v>1822852</v>
+      </c>
+      <c r="C49" s="99">
+        <v>1154559</v>
+      </c>
+      <c r="D49" s="99">
+        <v>668293</v>
+      </c>
+      <c r="E49" s="3">
+        <v>63</v>
+      </c>
+      <c r="F49" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>1984</v>
+      </c>
+      <c r="B50" s="99">
+        <v>1925893</v>
+      </c>
+      <c r="C50" s="99">
+        <v>1125645</v>
+      </c>
+      <c r="D50" s="99">
+        <v>800248</v>
+      </c>
+      <c r="E50" s="3">
+        <v>58</v>
+      </c>
+      <c r="F50" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>1985</v>
+      </c>
+      <c r="B51" s="99">
+        <v>2139361</v>
+      </c>
+      <c r="C51" s="99">
+        <v>1234391</v>
+      </c>
+      <c r="D51" s="99">
+        <v>904970</v>
+      </c>
+      <c r="E51" s="3">
+        <v>58</v>
+      </c>
+      <c r="F51" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>1986</v>
+      </c>
+      <c r="B52" s="99">
+        <v>2045943</v>
+      </c>
+      <c r="C52" s="99">
+        <v>1243946</v>
+      </c>
+      <c r="D52" s="99">
+        <v>801997</v>
+      </c>
+      <c r="E52" s="3">
+        <v>61</v>
+      </c>
+      <c r="F52" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>1987</v>
+      </c>
+      <c r="B53" s="99">
+        <v>1958650</v>
+      </c>
+      <c r="C53" s="99">
+        <v>1242945</v>
+      </c>
+      <c r="D53" s="99">
+        <v>715705</v>
+      </c>
+      <c r="E53" s="3">
+        <v>63</v>
+      </c>
+      <c r="F53" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>1988</v>
+      </c>
+      <c r="B54" s="99">
+        <v>2067572</v>
+      </c>
+      <c r="C54" s="99">
+        <v>1343199</v>
+      </c>
+      <c r="D54" s="99">
+        <v>724373</v>
+      </c>
+      <c r="E54" s="3">
+        <v>65</v>
+      </c>
+      <c r="F54" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>1989</v>
+      </c>
+      <c r="B55" s="99">
+        <v>2106517</v>
+      </c>
+      <c r="C55" s="99">
+        <v>1384355</v>
+      </c>
+      <c r="D55" s="99">
+        <v>722162</v>
+      </c>
+      <c r="E55" s="3">
+        <v>66</v>
+      </c>
+      <c r="F55" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>1990</v>
+      </c>
+      <c r="B56" s="99">
+        <v>2370451</v>
+      </c>
+      <c r="C56" s="99">
+        <v>1575602</v>
+      </c>
+      <c r="D56" s="99">
+        <v>794849</v>
+      </c>
+      <c r="E56" s="3">
+        <v>66</v>
+      </c>
+      <c r="F56" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>1991</v>
+      </c>
+      <c r="B57" s="99">
+        <v>2354129</v>
+      </c>
+      <c r="C57" s="99">
+        <v>1540930</v>
+      </c>
+      <c r="D57" s="99">
+        <v>813199</v>
+      </c>
+      <c r="E57" s="3">
+        <v>65</v>
+      </c>
+      <c r="F57" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>1992</v>
+      </c>
+      <c r="B58" s="99">
+        <v>2411977</v>
+      </c>
+      <c r="C58" s="99">
+        <v>1588385</v>
+      </c>
+      <c r="D58" s="99">
+        <v>823592</v>
+      </c>
+      <c r="E58" s="3">
+        <v>66</v>
+      </c>
+      <c r="F58" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>1993</v>
+      </c>
+      <c r="B59" s="99">
+        <v>2440429</v>
+      </c>
+      <c r="C59" s="99">
+        <v>1585078</v>
+      </c>
+      <c r="D59" s="99">
+        <v>855351</v>
+      </c>
+      <c r="E59" s="3">
+        <v>65</v>
+      </c>
+      <c r="F59" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>1994</v>
+      </c>
+      <c r="B60" s="99">
+        <v>2481640</v>
+      </c>
+      <c r="C60" s="99">
+        <v>1553348</v>
+      </c>
+      <c r="D60" s="99">
+        <v>928292</v>
+      </c>
+      <c r="E60" s="3">
+        <v>63</v>
+      </c>
+      <c r="F60" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>1995</v>
+      </c>
+      <c r="B61" s="99">
+        <v>2496206</v>
+      </c>
+      <c r="C61" s="99">
+        <v>1572619</v>
+      </c>
+      <c r="D61" s="99">
+        <v>923587</v>
+      </c>
+      <c r="E61" s="3">
+        <v>63</v>
+      </c>
+      <c r="F61" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>1996</v>
+      </c>
+      <c r="B62" s="99">
+        <v>2621768</v>
+      </c>
+      <c r="C62" s="99">
+        <v>1615605</v>
+      </c>
+      <c r="D62" s="99">
+        <v>1006163</v>
+      </c>
+      <c r="E62" s="3">
+        <v>62</v>
+      </c>
+      <c r="F62" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>1997</v>
+      </c>
+      <c r="B63" s="99">
+        <v>2837614</v>
+      </c>
+      <c r="C63" s="99">
+        <v>1746277</v>
+      </c>
+      <c r="D63" s="99">
+        <v>1091337</v>
+      </c>
+      <c r="E63" s="3">
+        <v>62</v>
+      </c>
+      <c r="F63" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>1998</v>
+      </c>
+      <c r="B64" s="99">
+        <v>2929952</v>
+      </c>
+      <c r="C64" s="99">
+        <v>1812619</v>
+      </c>
+      <c r="D64" s="99">
+        <v>1117333</v>
+      </c>
+      <c r="E64" s="3">
+        <v>62</v>
+      </c>
+      <c r="F64" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>1999</v>
+      </c>
+      <c r="B65" s="99">
+        <v>3058060</v>
+      </c>
+      <c r="C65" s="99">
+        <v>1864258</v>
+      </c>
+      <c r="D65" s="99">
+        <v>1193802</v>
+      </c>
+      <c r="E65" s="3">
+        <v>61</v>
+      </c>
+      <c r="F65" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B66" s="99">
+        <v>3382642</v>
+      </c>
+      <c r="C66" s="99">
+        <v>2054170</v>
+      </c>
+      <c r="D66" s="99">
+        <v>1328472</v>
+      </c>
+      <c r="E66" s="3">
+        <v>61</v>
+      </c>
+      <c r="F66" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>2001</v>
+      </c>
+      <c r="B67" s="99">
+        <v>3546701</v>
+      </c>
+      <c r="C67" s="99">
+        <v>2014919</v>
+      </c>
+      <c r="D67" s="99">
+        <v>1531782</v>
+      </c>
+      <c r="E67" s="3">
+        <v>57</v>
+      </c>
+      <c r="F67" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>2002</v>
+      </c>
+      <c r="B68" s="99">
+        <v>3838296</v>
+      </c>
+      <c r="C68" s="99">
+        <v>2222094</v>
+      </c>
+      <c r="D68" s="99">
+        <v>1616202</v>
+      </c>
+      <c r="E68" s="3">
+        <v>58</v>
+      </c>
+      <c r="F68" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>2003</v>
+      </c>
+      <c r="B69" s="99">
+        <v>4354506</v>
+      </c>
+      <c r="C69" s="99">
+        <v>2510625</v>
+      </c>
+      <c r="D69" s="99">
+        <v>1843881</v>
+      </c>
+      <c r="E69" s="3">
+        <v>58</v>
+      </c>
+      <c r="F69" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B70" s="99">
+        <v>4948754</v>
+      </c>
+      <c r="C70" s="99">
+        <v>2860167</v>
+      </c>
+      <c r="D70" s="99">
+        <v>2088587</v>
+      </c>
+      <c r="E70" s="3">
+        <v>58</v>
+      </c>
+      <c r="F70" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B71" s="99">
+        <v>5554128</v>
+      </c>
+      <c r="C71" s="99">
+        <v>3257929</v>
+      </c>
+      <c r="D71" s="99">
+        <v>2296199</v>
+      </c>
+      <c r="E71" s="3">
+        <v>59</v>
+      </c>
+      <c r="F71" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B72" s="99">
+        <v>6229327</v>
+      </c>
+      <c r="C72" s="99">
+        <v>3721520</v>
+      </c>
+      <c r="D72" s="99">
+        <v>2507807</v>
+      </c>
+      <c r="E72" s="3">
+        <v>60</v>
+      </c>
+      <c r="F72" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>2007</v>
+      </c>
+      <c r="B73" s="99">
+        <v>6841933</v>
+      </c>
+      <c r="C73" s="99">
+        <v>4105413</v>
+      </c>
+      <c r="D73" s="99">
+        <v>2736520</v>
+      </c>
+      <c r="E73" s="3">
+        <v>60</v>
+      </c>
+      <c r="F73" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B74" s="99">
+        <v>6526059</v>
+      </c>
+      <c r="C74" s="99">
+        <v>3984433</v>
+      </c>
+      <c r="D74" s="99">
+        <v>2541626</v>
+      </c>
+      <c r="E74" s="3">
+        <v>61</v>
+      </c>
+      <c r="F74" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B75" s="99">
+        <v>5604043</v>
+      </c>
+      <c r="C75" s="99">
+        <v>3434343</v>
+      </c>
+      <c r="D75" s="99">
+        <v>2169700</v>
+      </c>
+      <c r="E75" s="3">
+        <v>61</v>
+      </c>
+      <c r="F75" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B76" s="99">
+        <v>5961581</v>
+      </c>
+      <c r="C76" s="99">
+        <v>3274663</v>
+      </c>
+      <c r="D76" s="99">
+        <v>2686918</v>
+      </c>
+      <c r="E76" s="3">
+        <v>55</v>
+      </c>
+      <c r="F76" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B77" s="99">
+        <v>5895877</v>
+      </c>
+      <c r="C77" s="99">
+        <v>3231476</v>
+      </c>
+      <c r="D77" s="99">
+        <v>2664401</v>
+      </c>
+      <c r="E77" s="3">
+        <v>55</v>
+      </c>
+      <c r="F77" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A80" s="103" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="J85" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>1996</v>
+      </c>
+      <c r="B86" s="3">
+        <v>1233.3</v>
+      </c>
+      <c r="C86" s="3">
+        <v>100.4</v>
+      </c>
+      <c r="D86" s="3">
+        <v>438.8</v>
+      </c>
+      <c r="E86" s="3">
+        <v>135.5</v>
+      </c>
+      <c r="F86" s="3">
+        <v>431.5</v>
+      </c>
+      <c r="G86" s="3">
+        <v>23.8</v>
+      </c>
+      <c r="H86" s="3">
+        <v>114.4</v>
+      </c>
+      <c r="I86" s="3">
+        <v>144.19999999999999</v>
+      </c>
+      <c r="J86" s="3">
+        <v>2621.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>1997</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1336.4</v>
+      </c>
+      <c r="C87" s="3">
+        <v>135.4</v>
+      </c>
+      <c r="D87" s="3">
+        <v>501.8</v>
+      </c>
+      <c r="E87" s="3">
+        <v>143.6</v>
+      </c>
+      <c r="F87" s="3">
+        <v>379.4</v>
+      </c>
+      <c r="G87" s="3">
+        <v>46.3</v>
+      </c>
+      <c r="H87" s="3">
+        <v>146.69999999999999</v>
+      </c>
+      <c r="I87" s="3">
+        <v>148.19999999999999</v>
+      </c>
+      <c r="J87" s="3">
+        <v>2837.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>1998</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1489.4</v>
+      </c>
+      <c r="C88" s="3">
+        <v>151.6</v>
+      </c>
+      <c r="D88" s="3">
+        <v>560.5</v>
+      </c>
+      <c r="E88" s="3">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="F88" s="3">
+        <v>201.2</v>
+      </c>
+      <c r="G88" s="3">
+        <v>38.9</v>
+      </c>
+      <c r="H88" s="3">
+        <v>182.3</v>
+      </c>
+      <c r="I88" s="3">
+        <v>176.5</v>
+      </c>
+      <c r="J88" s="3">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>1999</v>
+      </c>
+      <c r="B89" s="3">
+        <v>1605.3</v>
+      </c>
+      <c r="C89" s="3">
+        <v>125.9</v>
+      </c>
+      <c r="D89" s="3">
+        <v>606.79999999999995</v>
+      </c>
+      <c r="E89" s="3">
+        <v>123.2</v>
+      </c>
+      <c r="F89" s="3">
+        <v>249.3</v>
+      </c>
+      <c r="G89" s="3">
+        <v>14.3</v>
+      </c>
+      <c r="H89" s="3">
+        <v>161.4</v>
+      </c>
+      <c r="I89" s="3">
+        <v>171.8</v>
+      </c>
+      <c r="J89" s="3">
+        <v>3058.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B90" s="3">
+        <v>1742.8</v>
+      </c>
+      <c r="C90" s="3">
+        <v>129.1</v>
+      </c>
+      <c r="D90" s="3">
+        <v>671.9</v>
+      </c>
+      <c r="E90" s="3">
+        <v>121.8</v>
+      </c>
+      <c r="F90" s="3">
+        <v>348.2</v>
+      </c>
+      <c r="G90" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="H90" s="3">
+        <v>168.7</v>
+      </c>
+      <c r="I90" s="3">
+        <v>176.7</v>
+      </c>
+      <c r="J90" s="3">
+        <v>3382.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>2001</v>
+      </c>
+      <c r="B91" s="3">
+        <v>1869</v>
+      </c>
+      <c r="C91" s="3">
+        <v>132</v>
+      </c>
+      <c r="D91" s="3">
+        <v>672.3</v>
+      </c>
+      <c r="E91" s="3">
+        <v>126.5</v>
+      </c>
+      <c r="F91" s="3">
+        <v>348.3</v>
+      </c>
+      <c r="G91" s="3">
+        <v>32</v>
+      </c>
+      <c r="H91" s="3">
+        <v>204.3</v>
+      </c>
+      <c r="I91" s="3">
+        <v>162.19999999999999</v>
+      </c>
+      <c r="J91" s="3">
+        <v>3546.7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>2002</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1908.9</v>
+      </c>
+      <c r="C92" s="3">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="D92" s="3">
+        <v>764.8</v>
+      </c>
+      <c r="E92" s="3">
+        <v>139.80000000000001</v>
+      </c>
+      <c r="F92" s="3">
+        <v>431.1</v>
+      </c>
+      <c r="G92" s="3">
+        <v>62.3</v>
+      </c>
+      <c r="H92" s="3">
+        <v>220.3</v>
+      </c>
+      <c r="I92" s="3">
+        <v>182.2</v>
+      </c>
+      <c r="J92" s="3">
+        <v>3838.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>2003</v>
+      </c>
+      <c r="B93" s="3">
+        <v>2031.3</v>
+      </c>
+      <c r="C93" s="3">
+        <v>162.1</v>
+      </c>
+      <c r="D93" s="3">
+        <v>851.5</v>
+      </c>
+      <c r="E93" s="3">
+        <v>160.6</v>
+      </c>
+      <c r="F93" s="3">
+        <v>575.1</v>
+      </c>
+      <c r="G93" s="3">
+        <v>107.3</v>
+      </c>
+      <c r="H93" s="3">
+        <v>251.4</v>
+      </c>
+      <c r="I93" s="3">
+        <v>215.1</v>
+      </c>
+      <c r="J93" s="3">
+        <v>4354.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B94" s="3">
+        <v>2230.3000000000002</v>
+      </c>
+      <c r="C94" s="3">
+        <v>214.9</v>
+      </c>
+      <c r="D94" s="3">
+        <v>946.9</v>
+      </c>
+      <c r="E94" s="3">
+        <v>206.7</v>
+      </c>
+      <c r="F94" s="3">
+        <v>718.9</v>
+      </c>
+      <c r="G94" s="3">
+        <v>127.4</v>
+      </c>
+      <c r="H94" s="3">
+        <v>270.89999999999998</v>
+      </c>
+      <c r="I94" s="3">
+        <v>232.8</v>
+      </c>
+      <c r="J94" s="3">
+        <v>4948.8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B95" s="3">
+        <v>2436.1</v>
+      </c>
+      <c r="C95" s="3">
+        <v>270.5</v>
+      </c>
+      <c r="D95" s="3">
+        <v>995.2</v>
+      </c>
+      <c r="E95" s="3">
+        <v>227.2</v>
+      </c>
+      <c r="F95" s="3">
+        <v>868.6</v>
+      </c>
+      <c r="G95" s="3">
+        <v>194.3</v>
+      </c>
+      <c r="H95" s="3">
+        <v>325.3</v>
+      </c>
+      <c r="I95" s="3">
+        <v>236.9</v>
+      </c>
+      <c r="J95" s="3">
+        <v>5554.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B96" s="3">
+        <v>2738.3</v>
+      </c>
+      <c r="C96" s="3">
+        <v>339.4</v>
+      </c>
+      <c r="D96" s="3">
+        <v>1124.0999999999999</v>
+      </c>
+      <c r="E96" s="3">
+        <v>265.7</v>
+      </c>
+      <c r="F96" s="3">
+        <v>788.1</v>
+      </c>
+      <c r="G96" s="3">
+        <v>318.60000000000002</v>
+      </c>
+      <c r="H96" s="3">
+        <v>404.8</v>
+      </c>
+      <c r="I96" s="3">
+        <v>250.3</v>
+      </c>
+      <c r="J96" s="3">
+        <v>6229.3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>2007</v>
+      </c>
+      <c r="B97" s="3">
+        <v>2822.2</v>
+      </c>
+      <c r="C97" s="3">
+        <v>379.4</v>
+      </c>
+      <c r="D97" s="3">
+        <v>1238.5999999999999</v>
+      </c>
+      <c r="E97" s="3">
+        <v>313.5</v>
+      </c>
+      <c r="F97" s="3">
+        <v>818.2</v>
+      </c>
+      <c r="G97" s="3">
+        <v>511.4</v>
+      </c>
+      <c r="H97" s="3">
+        <v>482.7</v>
+      </c>
+      <c r="I97" s="3">
+        <v>275.89999999999998</v>
+      </c>
+      <c r="J97" s="3">
+        <v>6841.9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B98" s="3">
+        <v>2441.8000000000002</v>
+      </c>
+      <c r="C98" s="3">
+        <v>370.2</v>
+      </c>
+      <c r="D98" s="3">
+        <v>1119.5</v>
+      </c>
+      <c r="E98" s="3">
+        <v>288.10000000000002</v>
+      </c>
+      <c r="F98" s="3">
+        <v>840.4</v>
+      </c>
+      <c r="G98" s="3">
+        <v>598.20000000000005</v>
+      </c>
+      <c r="H98" s="3">
+        <v>590.1</v>
+      </c>
+      <c r="I98" s="3">
+        <v>277.7</v>
+      </c>
+      <c r="J98" s="3">
+        <v>6526.1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B99" s="3">
+        <v>1975.4</v>
+      </c>
+      <c r="C99" s="3">
+        <v>293.60000000000002</v>
+      </c>
+      <c r="D99" s="3">
+        <v>886</v>
+      </c>
+      <c r="E99" s="3">
+        <v>201.4</v>
+      </c>
+      <c r="F99" s="3">
+        <v>817.8</v>
+      </c>
+      <c r="G99" s="3">
+        <v>716.1</v>
+      </c>
+      <c r="H99" s="3">
+        <v>482.5</v>
+      </c>
+      <c r="I99" s="3">
+        <v>231.2</v>
+      </c>
+      <c r="J99" s="3">
+        <v>5604</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B100" s="3">
+        <v>1935.5</v>
+      </c>
+      <c r="C100" s="3">
+        <v>342.1</v>
+      </c>
+      <c r="D100" s="3">
+        <v>785.8</v>
+      </c>
+      <c r="E100" s="3">
+        <v>198</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1038.8</v>
+      </c>
+      <c r="G100" s="3">
+        <v>857</v>
+      </c>
+      <c r="H100" s="3">
+        <v>554.6</v>
+      </c>
+      <c r="I100" s="3">
+        <v>249.7</v>
+      </c>
+      <c r="J100" s="3">
+        <v>5961.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1806.9</v>
+      </c>
+      <c r="C101" s="3">
+        <v>333.5</v>
+      </c>
+      <c r="D101" s="3">
+        <v>801.9</v>
+      </c>
+      <c r="E101" s="3">
+        <v>211.9</v>
+      </c>
+      <c r="F101" s="3">
+        <v>1103</v>
+      </c>
+      <c r="G101" s="3">
+        <v>895.2</v>
+      </c>
+      <c r="H101" s="3">
+        <v>527.5</v>
+      </c>
+      <c r="I101" s="3">
+        <v>215.9</v>
+      </c>
+      <c r="J101" s="3">
+        <v>5895.9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="102" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="102" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="102" t="s">
+        <v>420</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F57E76-F4B3-4F30-B06F-1D697F2F4C4A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97696D51-9235-4DF6-8329-BB893BAC7216}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2979D4FA-9988-493D-AAB6-B47FEBE6C467}">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -8568,7 +11666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77465DE-3959-4775-8910-E4FA13014B17}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -8679,7 +11777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9C4BEE-5B7C-46A6-BE34-F6DB7EFA20DC}">
   <dimension ref="A2:BA11"/>
   <sheetViews>
@@ -8907,7 +12005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBECE0EE-173E-4902-B854-0214EB9A1681}">
   <dimension ref="A2:Y13"/>
   <sheetViews>
@@ -9171,767 +12269,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3B7159-E648-4A17-87A3-4DEC161F9412}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2">
-        <f>A2*300/9</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <f t="shared" ref="D2:D10" si="0">B3*300/9</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:C11" si="1">A3*300/9</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" si="0"/>
-        <v>233.33333333333334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" si="1"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>266.66666666666669</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="1"/>
-        <v>133.33333333333334</v>
-      </c>
-      <c r="D6" s="2">
-        <f>B7*300/9</f>
-        <v>233.33333333333334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2">
-        <f>A7*300/9</f>
-        <v>166.66666666666666</v>
-      </c>
-      <c r="D7" s="2">
-        <f>B8*300/9</f>
-        <v>66.666666666666671</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>166.66666666666666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="1"/>
-        <v>233.33333333333334</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="1"/>
-        <v>266.66666666666669</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="D11" s="2">
-        <f>B2*300/9</f>
-        <v>133.33333333333334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1">
-        <f>MIN(B2:B11)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1">
-        <f>MAX(B3:B12)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1">
-        <f>AVERAGE(B4:B13)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1">
-        <f>STDEV(B5:B14)</f>
-        <v>2.4404006956964168</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC727EE-B0FC-4C7D-961C-CC5730B4F1FA}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6">
-        <f>B2*100/$B$8</f>
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <f>B2*6/30</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6">
-        <f t="shared" ref="C3:C8" si="0">B3*100/$B$8</f>
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E7" si="1">B3*6/30</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-      <c r="C4" s="6">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E4">
-        <f>B4*6/30</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5" s="6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>20</v>
-      </c>
-      <c r="C6" s="6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8">
-        <f>SUM(B2:B7)</f>
-        <v>100</v>
-      </c>
-      <c r="C8" s="6">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2786D27-6ADC-45C0-B36F-885854621D2D}">
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="89"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7">
-        <v>8.0399999999999991</v>
-      </c>
-      <c r="C4" s="7">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7">
-        <v>9.14</v>
-      </c>
-      <c r="E4" s="7">
-        <v>10</v>
-      </c>
-      <c r="F4" s="7">
-        <v>7.46</v>
-      </c>
-      <c r="G4" s="7">
-        <v>8</v>
-      </c>
-      <c r="H4" s="7">
-        <v>6.58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>8</v>
-      </c>
-      <c r="B5" s="7">
-        <v>6.95</v>
-      </c>
-      <c r="C5" s="7">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7">
-        <v>8.14</v>
-      </c>
-      <c r="E5" s="7">
-        <v>8</v>
-      </c>
-      <c r="F5" s="7">
-        <v>6.77</v>
-      </c>
-      <c r="G5" s="7">
-        <v>8</v>
-      </c>
-      <c r="H5" s="7">
-        <v>5.76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>13</v>
-      </c>
-      <c r="B6" s="7">
-        <v>7.58</v>
-      </c>
-      <c r="C6" s="7">
-        <v>13</v>
-      </c>
-      <c r="D6" s="7">
-        <v>8.74</v>
-      </c>
-      <c r="E6" s="7">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7">
-        <v>12.74</v>
-      </c>
-      <c r="G6" s="7">
-        <v>8</v>
-      </c>
-      <c r="H6" s="7">
-        <v>7.71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7">
-        <v>8.81</v>
-      </c>
-      <c r="C7" s="7">
-        <v>9</v>
-      </c>
-      <c r="D7" s="7">
-        <v>8.77</v>
-      </c>
-      <c r="E7" s="7">
-        <v>9</v>
-      </c>
-      <c r="F7" s="7">
-        <v>7.11</v>
-      </c>
-      <c r="G7" s="7">
-        <v>8</v>
-      </c>
-      <c r="H7" s="7">
-        <v>8.84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>11</v>
-      </c>
-      <c r="B8" s="7">
-        <v>8.33</v>
-      </c>
-      <c r="C8" s="7">
-        <v>11</v>
-      </c>
-      <c r="D8" s="7">
-        <v>9.26</v>
-      </c>
-      <c r="E8" s="7">
-        <v>11</v>
-      </c>
-      <c r="F8" s="7">
-        <v>7.81</v>
-      </c>
-      <c r="G8" s="7">
-        <v>8</v>
-      </c>
-      <c r="H8" s="7">
-        <v>8.4700000000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>14</v>
-      </c>
-      <c r="B9" s="7">
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="C9" s="7">
-        <v>14</v>
-      </c>
-      <c r="D9" s="7">
-        <v>8.1</v>
-      </c>
-      <c r="E9" s="7">
-        <v>14</v>
-      </c>
-      <c r="F9" s="7">
-        <v>8.84</v>
-      </c>
-      <c r="G9" s="7">
-        <v>8</v>
-      </c>
-      <c r="H9" s="7">
-        <v>7.04</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7">
-        <v>7.24</v>
-      </c>
-      <c r="C10" s="7">
-        <v>6</v>
-      </c>
-      <c r="D10" s="7">
-        <v>6.13</v>
-      </c>
-      <c r="E10" s="7">
-        <v>6</v>
-      </c>
-      <c r="F10" s="7">
-        <v>6.08</v>
-      </c>
-      <c r="G10" s="7">
-        <v>8</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7">
-        <v>4.26</v>
-      </c>
-      <c r="C11" s="7">
-        <v>4</v>
-      </c>
-      <c r="D11" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="E11" s="7">
-        <v>4</v>
-      </c>
-      <c r="F11" s="7">
-        <v>5.39</v>
-      </c>
-      <c r="G11" s="7">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>12</v>
-      </c>
-      <c r="B12" s="7">
-        <v>10.84</v>
-      </c>
-      <c r="C12" s="7">
-        <v>12</v>
-      </c>
-      <c r="D12" s="7">
-        <v>9.1300000000000008</v>
-      </c>
-      <c r="E12" s="7">
-        <v>12</v>
-      </c>
-      <c r="F12" s="7">
-        <v>8.15</v>
-      </c>
-      <c r="G12" s="7">
-        <v>8</v>
-      </c>
-      <c r="H12" s="7">
-        <v>5.56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>7</v>
-      </c>
-      <c r="B13" s="7">
-        <v>4.82</v>
-      </c>
-      <c r="C13" s="7">
-        <v>7</v>
-      </c>
-      <c r="D13" s="7">
-        <v>7.26</v>
-      </c>
-      <c r="E13" s="7">
-        <v>7</v>
-      </c>
-      <c r="F13" s="7">
-        <v>6.42</v>
-      </c>
-      <c r="G13" s="7">
-        <v>8</v>
-      </c>
-      <c r="H13" s="7">
-        <v>7.91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>5</v>
-      </c>
-      <c r="B14" s="7">
-        <v>5.68</v>
-      </c>
-      <c r="C14" s="7">
-        <v>5</v>
-      </c>
-      <c r="D14" s="7">
-        <v>4.74</v>
-      </c>
-      <c r="E14" s="7">
-        <v>5</v>
-      </c>
-      <c r="F14" s="7">
-        <v>5.73</v>
-      </c>
-      <c r="G14" s="7">
-        <v>8</v>
-      </c>
-      <c r="H14" s="7">
-        <v>6.89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <f>MIN(A4:A14)</f>
-        <v>4</v>
-      </c>
-      <c r="B15" s="10">
-        <f>MIN(B4:B14)</f>
-        <v>4.26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <f>MAX(A4:A14)</f>
-        <v>14</v>
-      </c>
-      <c r="B16" s="10">
-        <f>MAX(B4:B14)</f>
-        <v>10.84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <f>SUM(A4:A14)</f>
-        <v>99</v>
-      </c>
-      <c r="B17" s="10">
-        <f>SUM(B4:B14)</f>
-        <v>82.510000000000019</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>